--- a/SQL Collection/DataBaseRecords.xlsx
+++ b/SQL Collection/DataBaseRecords.xlsx
@@ -1,29 +1,694 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Third Year\SEN381\Main Project\PremierService-Solutions-FrontEnd\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF1E25-4256-482A-8976-3BCB3307873E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Address" sheetId="1" r:id="rId1"/>
+    <sheet name="Employee" sheetId="2" r:id="rId2"/>
+    <sheet name="Specialisation" sheetId="3" r:id="rId3"/>
+    <sheet name="ClientIndividual" sheetId="4" r:id="rId4"/>
+    <sheet name="ClientBusiness" sheetId="5" r:id="rId5"/>
+    <sheet name="ServicePackage" sheetId="6" r:id="rId6"/>
+    <sheet name="Service" sheetId="8" r:id="rId7"/>
+    <sheet name="Call" sheetId="9" r:id="rId8"/>
+    <sheet name="ServiceRequest" sheetId="10" r:id="rId9"/>
+    <sheet name="Job" sheetId="11" r:id="rId10"/>
+    <sheet name="Contract" sheetId="27" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="197">
+  <si>
+    <t>streetName</t>
+  </si>
+  <si>
+    <t>Midrand</t>
+  </si>
+  <si>
+    <t>Hatfield</t>
+  </si>
+  <si>
+    <t>Fourways</t>
+  </si>
+  <si>
+    <t>Lonehill</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>contactNumber</t>
+  </si>
+  <si>
+    <t>employeeDate</t>
+  </si>
+  <si>
+    <t>employed</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Jayden</t>
+  </si>
+  <si>
+    <t>Matin</t>
+  </si>
+  <si>
+    <t>Lijani</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Hardman</t>
+  </si>
+  <si>
+    <t>De wet</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Zeus</t>
+  </si>
+  <si>
+    <t>myname@gmail.com</t>
+  </si>
+  <si>
+    <t>yourname@hotmail.com</t>
+  </si>
+  <si>
+    <t>lolmemes@gmail.com</t>
+  </si>
+  <si>
+    <t>himatin@yahoo.com</t>
+  </si>
+  <si>
+    <t>mrdoge@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-12-01</t>
+  </si>
+  <si>
+    <t>1980-06-02</t>
+  </si>
+  <si>
+    <t>2002-02-20</t>
+  </si>
+  <si>
+    <t>Call Center</t>
+  </si>
+  <si>
+    <t>Service Manager</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Fix Printers</t>
+  </si>
+  <si>
+    <t>Pumber</t>
+  </si>
+  <si>
+    <t>Electricial</t>
+  </si>
+  <si>
+    <t>Painter</t>
+  </si>
+  <si>
+    <t>Gardener</t>
+  </si>
+  <si>
+    <t>Fix pipes and toilets</t>
+  </si>
+  <si>
+    <t>fix printers of all types</t>
+  </si>
+  <si>
+    <t>Fix electrical things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paint walls </t>
+  </si>
+  <si>
+    <t>Maintain garden</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>nationalIDnumber</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Jaco</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Mitch</t>
+  </si>
+  <si>
+    <t>Soft</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Musk</t>
+  </si>
+  <si>
+    <t>john@gmail.com</t>
+  </si>
+  <si>
+    <t>joe@gmail.com</t>
+  </si>
+  <si>
+    <t>jane@gmail.com</t>
+  </si>
+  <si>
+    <t>peter@gmail.com</t>
+  </si>
+  <si>
+    <t>jaco@gmail.com</t>
+  </si>
+  <si>
+    <t>3839293456921</t>
+  </si>
+  <si>
+    <t>8394032019234</t>
+  </si>
+  <si>
+    <t>9384717283912</t>
+  </si>
+  <si>
+    <t>9384581284912</t>
+  </si>
+  <si>
+    <t>9283492918721</t>
+  </si>
+  <si>
+    <t>1990-12-01</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>2004-03-04</t>
+  </si>
+  <si>
+    <t>2012-09-21</t>
+  </si>
+  <si>
+    <t>contractNumber</t>
+  </si>
+  <si>
+    <t>taxNumber</t>
+  </si>
+  <si>
+    <t>RegistrationDate</t>
+  </si>
+  <si>
+    <t>WeSellThings</t>
+  </si>
+  <si>
+    <t>takealittle</t>
+  </si>
+  <si>
+    <t>amagone</t>
+  </si>
+  <si>
+    <t>largemilkers</t>
+  </si>
+  <si>
+    <t>boredathome</t>
+  </si>
+  <si>
+    <t>8762833485</t>
+  </si>
+  <si>
+    <t>8124955871</t>
+  </si>
+  <si>
+    <t>8264822814</t>
+  </si>
+  <si>
+    <t>9193455812</t>
+  </si>
+  <si>
+    <t>7394599123</t>
+  </si>
+  <si>
+    <t>8762128491</t>
+  </si>
+  <si>
+    <t>7263749182</t>
+  </si>
+  <si>
+    <t>7462919202</t>
+  </si>
+  <si>
+    <t>6273819283</t>
+  </si>
+  <si>
+    <t>2000-03-21</t>
+  </si>
+  <si>
+    <t>1999-03-19</t>
+  </si>
+  <si>
+    <t>1980-12-21</t>
+  </si>
+  <si>
+    <t>1892-12-01</t>
+  </si>
+  <si>
+    <t>2020-03-21</t>
+  </si>
+  <si>
+    <t>onPromotion</t>
+  </si>
+  <si>
+    <t>promotionPercentAmount</t>
+  </si>
+  <si>
+    <t>promotionStartDate</t>
+  </si>
+  <si>
+    <t>promotionEndDate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Printers</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Planes</t>
+  </si>
+  <si>
+    <t>Gardening</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>suburb</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>postalcode</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>addressId</t>
+  </si>
+  <si>
+    <t>nationalIdNumber</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>businessName</t>
+  </si>
+  <si>
+    <t>fixInkjetPrinter</t>
+  </si>
+  <si>
+    <t>fixToilet</t>
+  </si>
+  <si>
+    <t>removeWeeds</t>
+  </si>
+  <si>
+    <t>replacePlug</t>
+  </si>
+  <si>
+    <t>removeWasps</t>
+  </si>
+  <si>
+    <t>Fix all types of ink jet printers</t>
+  </si>
+  <si>
+    <t>fix toilets</t>
+  </si>
+  <si>
+    <t>remove weeds from gardens and other areas</t>
+  </si>
+  <si>
+    <t>replace a broken or defective plug point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove wasps from areas </t>
+  </si>
+  <si>
+    <t>8729293812</t>
+  </si>
+  <si>
+    <t>startTime</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>ClientIndividualID</t>
+  </si>
+  <si>
+    <t>ClientBusinessID</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>callNotes</t>
+  </si>
+  <si>
+    <t>2001,11,9,18,43,0</t>
+  </si>
+  <si>
+    <t>2003,05,21,14,13,0</t>
+  </si>
+  <si>
+    <t>2018,10,12,12,30,0</t>
+  </si>
+  <si>
+    <t>2000,1,19,6,30,0</t>
+  </si>
+  <si>
+    <t>2010,6,6,12,0,0</t>
+  </si>
+  <si>
+    <t>2000,1,19,6,34,0</t>
+  </si>
+  <si>
+    <t>2018,10,12,12,40,0</t>
+  </si>
+  <si>
+    <t>2001,11,9,18,44,0</t>
+  </si>
+  <si>
+    <t>2003,05,21,14,18,0</t>
+  </si>
+  <si>
+    <t>2010,6,6,12,15,0</t>
+  </si>
+  <si>
+    <t>E00000001</t>
+  </si>
+  <si>
+    <t>A00000001</t>
+  </si>
+  <si>
+    <t>A00000003</t>
+  </si>
+  <si>
+    <t>A00000005</t>
+  </si>
+  <si>
+    <t>B00000003</t>
+  </si>
+  <si>
+    <t>B00000002</t>
+  </si>
+  <si>
+    <t>E00000003</t>
+  </si>
+  <si>
+    <t>E00000002</t>
+  </si>
+  <si>
+    <t>E00000004</t>
+  </si>
+  <si>
+    <t>E00000005</t>
+  </si>
+  <si>
+    <t>Garden needs weeds removed</t>
+  </si>
+  <si>
+    <t>Light switch won't work</t>
+  </si>
+  <si>
+    <t>Printer jammed</t>
+  </si>
+  <si>
+    <t>Wall has paint chips</t>
+  </si>
+  <si>
+    <t>0817622651</t>
+  </si>
+  <si>
+    <t>0848766219</t>
+  </si>
+  <si>
+    <t>0724877534</t>
+  </si>
+  <si>
+    <t>0818477924</t>
+  </si>
+  <si>
+    <t>0617349561</t>
+  </si>
+  <si>
+    <t>09728411356</t>
+  </si>
+  <si>
+    <t>09813455135</t>
+  </si>
+  <si>
+    <t>06632122356</t>
+  </si>
+  <si>
+    <t>07434566723</t>
+  </si>
+  <si>
+    <t>02345667522</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>callID</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>PLA1</t>
+  </si>
+  <si>
+    <t>GOL2</t>
+  </si>
+  <si>
+    <t>SIL3</t>
+  </si>
+  <si>
+    <t>BRO4</t>
+  </si>
+  <si>
+    <t>Broken pipes</t>
+  </si>
+  <si>
+    <t>ServiceRequestID</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>currentState</t>
+  </si>
+  <si>
+    <t>specialisationId</t>
+  </si>
+  <si>
+    <t>amountofEmployessNeeded</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>priorityLevel</t>
+  </si>
+  <si>
+    <t>contractType</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>johannesburg</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>capetown</t>
+  </si>
+  <si>
+    <t>1990-02-01</t>
+  </si>
+  <si>
+    <t>1999-10-02</t>
+  </si>
+  <si>
+    <t>2002-02-03</t>
+  </si>
+  <si>
+    <t>21 Foxhound</t>
+  </si>
+  <si>
+    <t>32 Maple</t>
+  </si>
+  <si>
+    <t>63 Main</t>
+  </si>
+  <si>
+    <t>92 Maxwell</t>
+  </si>
+  <si>
+    <t>55 Church</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Gonzales</t>
+  </si>
+  <si>
+    <t>0785541254</t>
+  </si>
+  <si>
+    <t>mainman@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-05-04</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +711,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +1002,1352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="6" max="6" width="132" style="4" customWidth="1"/>
+    <col min="7" max="16" width="9.109375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>7102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B5DE8-4E16-41E8-BDD7-94A9F8EA519D}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str" cm="1">
+        <f t="array" ref="C2:C6">ServiceRequest!C2:C6</f>
+        <v>Broken pipes</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Garden needs weeds removed</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Light switch won't work</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Printer jammed</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Wall has paint chips</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729D5E5-EBA3-4AD4-89B3-6D680D0AD05C}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285A87D0-6993-4E9A-92DB-3C38401DBA37}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>9861237651092</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1348302832952</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8305283029467</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3">
+        <v>7502837592035</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9305832739295</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="3">
+        <v>9696857415236</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{823BB252-E784-4809-9491-8163236AC9CE}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{91822FBF-8BBC-46E8-AD23-268479C18DF2}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{31AD3656-8BD8-4E53-93F3-4E6D9B0F3726}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{9C713FE9-3584-44D3-A948-B3D59640D65B}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{17631E80-A551-4CF4-B424-0AE6775C57A1}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{69B30157-E0C9-4862-AB13-30420E3A6EE1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A000B-1196-4AED-9DC8-9045892B92EA}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C11AAE-C941-4DD6-B77C-6477F7E27E50}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{03DD9E34-EA55-4DF0-A4B5-F1F113FAAC7F}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8F54563C-EEDB-45C1-A7B4-9D1D68669E85}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8C4E8F2B-C5FB-4081-B349-FA92E58D258D}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B149961C-2F29-4A06-8690-3E8BB7CF1C96}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{487CF963-2B51-48A5-B7B8-47D6CAD61262}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11E3885-7698-4E55-9C9B-8066A54A1099}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070B003-D1C3-4877-8BC6-170798607FD7}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6">
+        <v>20000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598067A-EBA1-43E2-9A97-F1C6418E3363}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC00209-E711-4682-94E1-7E66A0527FC1}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230652B2-11AE-4461-8C3B-930E31C235FB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Call!F2</f>
+        <v>Broken pipes</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Call!F3</f>
+        <v>Garden needs weeds removed</v>
+      </c>
+      <c r="D3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Call!F4</f>
+        <v>Light switch won't work</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Call!F5</f>
+        <v>Printer jammed</v>
+      </c>
+      <c r="D5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Call!F6</f>
+        <v>Wall has paint chips</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SQL Collection/DataBaseRecords.xlsx
+++ b/SQL Collection/DataBaseRecords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Third Year\SEN381\Main Project\PremierService-Solutions-FrontEnd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lijani\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF1E25-4256-482A-8976-3BCB3307873E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CC27D-2165-47A3-9AB9-B719B61BE770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Contract" sheetId="27" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="465">
   <si>
     <t>streetName</t>
   </si>
@@ -143,15 +144,6 @@
     <t>mrdoge@gmail.com</t>
   </si>
   <si>
-    <t>2000-12-01</t>
-  </si>
-  <si>
-    <t>1980-06-02</t>
-  </si>
-  <si>
-    <t>2002-02-20</t>
-  </si>
-  <si>
     <t>Call Center</t>
   </si>
   <si>
@@ -167,15 +159,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>Fix Printers</t>
-  </si>
-  <si>
-    <t>Pumber</t>
-  </si>
-  <si>
-    <t>Electricial</t>
-  </si>
-  <si>
     <t>Painter</t>
   </si>
   <si>
@@ -185,15 +168,6 @@
     <t>Fix pipes and toilets</t>
   </si>
   <si>
-    <t>fix printers of all types</t>
-  </si>
-  <si>
-    <t>Fix electrical things</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paint walls </t>
-  </si>
-  <si>
     <t>Maintain garden</t>
   </si>
   <si>
@@ -245,33 +219,6 @@
     <t>jaco@gmail.com</t>
   </si>
   <si>
-    <t>3839293456921</t>
-  </si>
-  <si>
-    <t>8394032019234</t>
-  </si>
-  <si>
-    <t>9384717283912</t>
-  </si>
-  <si>
-    <t>9384581284912</t>
-  </si>
-  <si>
-    <t>9283492918721</t>
-  </si>
-  <si>
-    <t>1990-12-01</t>
-  </si>
-  <si>
-    <t>2000-01-01</t>
-  </si>
-  <si>
-    <t>2004-03-04</t>
-  </si>
-  <si>
-    <t>2012-09-21</t>
-  </si>
-  <si>
     <t>contractNumber</t>
   </si>
   <si>
@@ -284,33 +231,6 @@
     <t>WeSellThings</t>
   </si>
   <si>
-    <t>takealittle</t>
-  </si>
-  <si>
-    <t>amagone</t>
-  </si>
-  <si>
-    <t>largemilkers</t>
-  </si>
-  <si>
-    <t>boredathome</t>
-  </si>
-  <si>
-    <t>8762833485</t>
-  </si>
-  <si>
-    <t>8124955871</t>
-  </si>
-  <si>
-    <t>8264822814</t>
-  </si>
-  <si>
-    <t>9193455812</t>
-  </si>
-  <si>
-    <t>7394599123</t>
-  </si>
-  <si>
     <t>8762128491</t>
   </si>
   <si>
@@ -323,21 +243,6 @@
     <t>6273819283</t>
   </si>
   <si>
-    <t>2000-03-21</t>
-  </si>
-  <si>
-    <t>1999-03-19</t>
-  </si>
-  <si>
-    <t>1980-12-21</t>
-  </si>
-  <si>
-    <t>1892-12-01</t>
-  </si>
-  <si>
-    <t>2020-03-21</t>
-  </si>
-  <si>
     <t>onPromotion</t>
   </si>
   <si>
@@ -353,27 +258,9 @@
     <t>price</t>
   </si>
   <si>
-    <t>Samsung</t>
-  </si>
-  <si>
-    <t>Printers</t>
-  </si>
-  <si>
-    <t>Cars</t>
-  </si>
-  <si>
-    <t>Planes</t>
-  </si>
-  <si>
     <t>Gardening</t>
   </si>
   <si>
-    <t>2021-03-01</t>
-  </si>
-  <si>
-    <t>2021-06-01</t>
-  </si>
-  <si>
     <t>suburb</t>
   </si>
   <si>
@@ -395,42 +282,9 @@
     <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>businessName</t>
   </si>
   <si>
-    <t>fixInkjetPrinter</t>
-  </si>
-  <si>
-    <t>fixToilet</t>
-  </si>
-  <si>
-    <t>removeWeeds</t>
-  </si>
-  <si>
-    <t>replacePlug</t>
-  </si>
-  <si>
-    <t>removeWasps</t>
-  </si>
-  <si>
-    <t>Fix all types of ink jet printers</t>
-  </si>
-  <si>
-    <t>fix toilets</t>
-  </si>
-  <si>
-    <t>remove weeds from gardens and other areas</t>
-  </si>
-  <si>
-    <t>replace a broken or defective plug point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove wasps from areas </t>
-  </si>
-  <si>
     <t>8729293812</t>
   </si>
   <si>
@@ -452,36 +306,6 @@
     <t>callNotes</t>
   </si>
   <si>
-    <t>2001,11,9,18,43,0</t>
-  </si>
-  <si>
-    <t>2003,05,21,14,13,0</t>
-  </si>
-  <si>
-    <t>2018,10,12,12,30,0</t>
-  </si>
-  <si>
-    <t>2000,1,19,6,30,0</t>
-  </si>
-  <si>
-    <t>2010,6,6,12,0,0</t>
-  </si>
-  <si>
-    <t>2000,1,19,6,34,0</t>
-  </si>
-  <si>
-    <t>2018,10,12,12,40,0</t>
-  </si>
-  <si>
-    <t>2001,11,9,18,44,0</t>
-  </si>
-  <si>
-    <t>2003,05,21,14,18,0</t>
-  </si>
-  <si>
-    <t>2010,6,6,12,15,0</t>
-  </si>
-  <si>
     <t>E00000001</t>
   </si>
   <si>
@@ -500,30 +324,9 @@
     <t>B00000002</t>
   </si>
   <si>
-    <t>E00000003</t>
-  </si>
-  <si>
     <t>E00000002</t>
   </si>
   <si>
-    <t>E00000004</t>
-  </si>
-  <si>
-    <t>E00000005</t>
-  </si>
-  <si>
-    <t>Garden needs weeds removed</t>
-  </si>
-  <si>
-    <t>Light switch won't work</t>
-  </si>
-  <si>
-    <t>Printer jammed</t>
-  </si>
-  <si>
-    <t>Wall has paint chips</t>
-  </si>
-  <si>
     <t>0817622651</t>
   </si>
   <si>
@@ -539,21 +342,6 @@
     <t>0617349561</t>
   </si>
   <si>
-    <t>09728411356</t>
-  </si>
-  <si>
-    <t>09813455135</t>
-  </si>
-  <si>
-    <t>06632122356</t>
-  </si>
-  <si>
-    <t>07434566723</t>
-  </si>
-  <si>
-    <t>02345667522</t>
-  </si>
-  <si>
     <t>active</t>
   </si>
   <si>
@@ -569,18 +357,6 @@
     <t>PLA1</t>
   </si>
   <si>
-    <t>GOL2</t>
-  </si>
-  <si>
-    <t>SIL3</t>
-  </si>
-  <si>
-    <t>BRO4</t>
-  </si>
-  <si>
-    <t>Broken pipes</t>
-  </si>
-  <si>
     <t>ServiceRequestID</t>
   </si>
   <si>
@@ -611,24 +387,9 @@
     <t>city</t>
   </si>
   <si>
-    <t>johannesburg</t>
-  </si>
-  <si>
     <t>Pretoria</t>
   </si>
   <si>
-    <t>capetown</t>
-  </si>
-  <si>
-    <t>1990-02-01</t>
-  </si>
-  <si>
-    <t>1999-10-02</t>
-  </si>
-  <si>
-    <t>2002-02-03</t>
-  </si>
-  <si>
     <t>21 Foxhound</t>
   </si>
   <si>
@@ -656,7 +417,1051 @@
     <t>mainman@gmail.com</t>
   </si>
   <si>
-    <t>2000-05-04</t>
+    <t>78 Bloodwood</t>
+  </si>
+  <si>
+    <t>Rosebank</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>89 Verdi</t>
+  </si>
+  <si>
+    <t>Houghton</t>
+  </si>
+  <si>
+    <t>24 Kamp</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Parow</t>
+  </si>
+  <si>
+    <t>1172 Plane</t>
+  </si>
+  <si>
+    <t>Craighall</t>
+  </si>
+  <si>
+    <t>Durban</t>
+  </si>
+  <si>
+    <t>12 Dickens</t>
+  </si>
+  <si>
+    <t>Parktown</t>
+  </si>
+  <si>
+    <t>2314 Oxford</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>Outshoorn</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Johan</t>
+  </si>
+  <si>
+    <t>Venter</t>
+  </si>
+  <si>
+    <t>jjf@gmail.com</t>
+  </si>
+  <si>
+    <t>0875462135</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>0840002356</t>
+  </si>
+  <si>
+    <t>emmasm@gmail.com</t>
+  </si>
+  <si>
+    <t>9901220023086</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>9602180058088</t>
+  </si>
+  <si>
+    <t>9606257415236</t>
+  </si>
+  <si>
+    <t>9305042739295</t>
+  </si>
+  <si>
+    <t>7502137592035</t>
+  </si>
+  <si>
+    <t>8305283029467</t>
+  </si>
+  <si>
+    <t>9001010045087</t>
+  </si>
+  <si>
+    <t>9712010089065</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Labuschagne</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>0615872145</t>
+  </si>
+  <si>
+    <t>lappie@hotmail.com</t>
+  </si>
+  <si>
+    <t>7812120045069</t>
+  </si>
+  <si>
+    <t>Milla</t>
+  </si>
+  <si>
+    <t>Enthoven</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0621258744</t>
+  </si>
+  <si>
+    <t>milla@enthoven.co.za</t>
+  </si>
+  <si>
+    <t>0210070024087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emke </t>
+  </si>
+  <si>
+    <t>Krige</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0834005297</t>
+  </si>
+  <si>
+    <t>emkrige@vodamail.com</t>
+  </si>
+  <si>
+    <t>0004280078089</t>
+  </si>
+  <si>
+    <t>Kayla</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>99 Orange</t>
+  </si>
+  <si>
+    <t>Kempton</t>
+  </si>
+  <si>
+    <t>Kempton Park</t>
+  </si>
+  <si>
+    <t>100 Kryger</t>
+  </si>
+  <si>
+    <t>Mountainview</t>
+  </si>
+  <si>
+    <t>1169 Ash</t>
+  </si>
+  <si>
+    <t>Colbyn</t>
+  </si>
+  <si>
+    <t>Kilner Park</t>
+  </si>
+  <si>
+    <t>91 Hayley</t>
+  </si>
+  <si>
+    <t>Norwood</t>
+  </si>
+  <si>
+    <t>67 High</t>
+  </si>
+  <si>
+    <t>Bedfordview</t>
+  </si>
+  <si>
+    <t>Nelspruit</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0751239874</t>
+  </si>
+  <si>
+    <t>kaykay@gmail.com</t>
+  </si>
+  <si>
+    <t>9504190056025</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0472541230</t>
+  </si>
+  <si>
+    <t>evans@hotmail.com</t>
+  </si>
+  <si>
+    <t>8503260045077</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>Electrician</t>
+  </si>
+  <si>
+    <t>Office Technician</t>
+  </si>
+  <si>
+    <t>Fix printers of all types</t>
+  </si>
+  <si>
+    <t>Fix electrical problems</t>
+  </si>
+  <si>
+    <t>Paint buildings</t>
+  </si>
+  <si>
+    <t>Communication Technician</t>
+  </si>
+  <si>
+    <t>Maintain telephone lines</t>
+  </si>
+  <si>
+    <t>Paver</t>
+  </si>
+  <si>
+    <t>Repairs paving outside</t>
+  </si>
+  <si>
+    <t>Window washer</t>
+  </si>
+  <si>
+    <t>Cleans windows of all sizes</t>
+  </si>
+  <si>
+    <t>Carpenter</t>
+  </si>
+  <si>
+    <t>Lays carpets</t>
+  </si>
+  <si>
+    <t>Samsung Technician</t>
+  </si>
+  <si>
+    <t>Repairs Samsung devices</t>
+  </si>
+  <si>
+    <t>HP Technician</t>
+  </si>
+  <si>
+    <t>Repairs HP devices</t>
+  </si>
+  <si>
+    <t>WiFi Installer</t>
+  </si>
+  <si>
+    <t>Installs WiFi from scratch</t>
+  </si>
+  <si>
+    <t>9012010045089</t>
+  </si>
+  <si>
+    <t>0001010056023</t>
+  </si>
+  <si>
+    <t>0202200056088</t>
+  </si>
+  <si>
+    <t>0403040088089</t>
+  </si>
+  <si>
+    <t>1203210089099</t>
+  </si>
+  <si>
+    <t>Ulrika</t>
+  </si>
+  <si>
+    <t>Hutch</t>
+  </si>
+  <si>
+    <t>ulrika@gmail.com</t>
+  </si>
+  <si>
+    <t>9803230056089</t>
+  </si>
+  <si>
+    <t>Dillan</t>
+  </si>
+  <si>
+    <t>de Waal</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0894552236</t>
+  </si>
+  <si>
+    <t>Kellyn</t>
+  </si>
+  <si>
+    <t>Kinnear</t>
+  </si>
+  <si>
+    <t>0238897777</t>
+  </si>
+  <si>
+    <t>0562231554</t>
+  </si>
+  <si>
+    <t>0972841135</t>
+  </si>
+  <si>
+    <t>0981345513</t>
+  </si>
+  <si>
+    <t>0663212235</t>
+  </si>
+  <si>
+    <t>0743456672</t>
+  </si>
+  <si>
+    <t>0234566752</t>
+  </si>
+  <si>
+    <t>dewaal@hotmail.com</t>
+  </si>
+  <si>
+    <t>7803310055069</t>
+  </si>
+  <si>
+    <t>k.kinnear@gmail.com</t>
+  </si>
+  <si>
+    <t>9502140023086</t>
+  </si>
+  <si>
+    <t>Jake</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>0560080808</t>
+  </si>
+  <si>
+    <t>jacksonejake@gmail.com</t>
+  </si>
+  <si>
+    <t>8512110088065</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Twist</t>
+  </si>
+  <si>
+    <t>0784451236</t>
+  </si>
+  <si>
+    <t>ollie.twist@vodamail.com</t>
+  </si>
+  <si>
+    <t>8810310045089</t>
+  </si>
+  <si>
+    <t>TakeALittle</t>
+  </si>
+  <si>
+    <t>AmaGone</t>
+  </si>
+  <si>
+    <t>Milk At Large</t>
+  </si>
+  <si>
+    <t>Bored At Home</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>0122598899</t>
+  </si>
+  <si>
+    <t>0315561254</t>
+  </si>
+  <si>
+    <t>0315569874</t>
+  </si>
+  <si>
+    <t>0125698745</t>
+  </si>
+  <si>
+    <t>0453694587</t>
+  </si>
+  <si>
+    <t>0125648878</t>
+  </si>
+  <si>
+    <t>0316587788</t>
+  </si>
+  <si>
+    <t>0123658899</t>
+  </si>
+  <si>
+    <t>0314578000</t>
+  </si>
+  <si>
+    <t>2354123652</t>
+  </si>
+  <si>
+    <t>1256878654</t>
+  </si>
+  <si>
+    <t>2587456454</t>
+  </si>
+  <si>
+    <t>2356987745</t>
+  </si>
+  <si>
+    <t>Phones R Us</t>
+  </si>
+  <si>
+    <t>Pick And Swipe</t>
+  </si>
+  <si>
+    <t>Kua Kua</t>
+  </si>
+  <si>
+    <t>New Ages</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Outside Maintenance</t>
+  </si>
+  <si>
+    <t>Samsung Appliances</t>
+  </si>
+  <si>
+    <t>Office Printers</t>
+  </si>
+  <si>
+    <t>Flooring</t>
+  </si>
+  <si>
+    <t>Nokia Devices</t>
+  </si>
+  <si>
+    <t>HP Equipment</t>
+  </si>
+  <si>
+    <t>Painting</t>
+  </si>
+  <si>
+    <t>Indoor Maintenance</t>
+  </si>
+  <si>
+    <t>7000</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>6300</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Fix ink jet printers</t>
+  </si>
+  <si>
+    <t>Repair toilet pipes</t>
+  </si>
+  <si>
+    <t>Replace broken toilet pipes</t>
+  </si>
+  <si>
+    <t>Remove weeds from gardens and between paving stones</t>
+  </si>
+  <si>
+    <t>Replace plugs</t>
+  </si>
+  <si>
+    <t>Replace a broken or defective plug point</t>
+  </si>
+  <si>
+    <t>Exterminate wasps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove wasps from areas </t>
+  </si>
+  <si>
+    <t>Pest Control</t>
+  </si>
+  <si>
+    <t>Controlling of all unwanted pests, such as rats</t>
+  </si>
+  <si>
+    <t>Animal Control</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>Exterminate rats</t>
+  </si>
+  <si>
+    <t>Remove rats from areas</t>
+  </si>
+  <si>
+    <t>Fix laser printers</t>
+  </si>
+  <si>
+    <t>Fix all types of laser printers</t>
+  </si>
+  <si>
+    <t>Plant flowers</t>
+  </si>
+  <si>
+    <t>Plant flowers in garden beds, includes watering the garden after planting</t>
+  </si>
+  <si>
+    <t>Replace missing bricks</t>
+  </si>
+  <si>
+    <t>Place new bricks in place of missing bricks</t>
+  </si>
+  <si>
+    <t>Paint outside walls</t>
+  </si>
+  <si>
+    <t>Paint the outer walls of the building a desired colour</t>
+  </si>
+  <si>
+    <t>Paint inside walls</t>
+  </si>
+  <si>
+    <t>Paint the interior walls of the building a desired colour</t>
+  </si>
+  <si>
+    <t>Maintain HP printer</t>
+  </si>
+  <si>
+    <t>Routine maintenance on HP office printer</t>
+  </si>
+  <si>
+    <t>Fix all types of ink jet printers, excluding HP</t>
+  </si>
+  <si>
+    <t>Debug HP laptop</t>
+  </si>
+  <si>
+    <t>Find and fix the bugs on a HP office notebook or laptop</t>
+  </si>
+  <si>
+    <t>Maintain Samsung fridge</t>
+  </si>
+  <si>
+    <t>Routine maintenance on Samsung smart fridge - office use only</t>
+  </si>
+  <si>
+    <t>Reconnect router</t>
+  </si>
+  <si>
+    <t>Reconnect the disconnected WiFi router in the office</t>
+  </si>
+  <si>
+    <t>Replace telephone buttons</t>
+  </si>
+  <si>
+    <t>Replace the missing buttons on an office telephone - cannot guarantee matching</t>
+  </si>
+  <si>
+    <t>Remove weeds</t>
+  </si>
+  <si>
+    <t>Fix leaking sink</t>
+  </si>
+  <si>
+    <t>Find and fix the cause of a leaking sink in the bathroom</t>
+  </si>
+  <si>
+    <t>Fix broken window</t>
+  </si>
+  <si>
+    <t>Replace the shattered glass of a window - does not include the pane</t>
+  </si>
+  <si>
+    <t>Fix Nokia screen</t>
+  </si>
+  <si>
+    <t>Replace the screen on a Nokia device</t>
+  </si>
+  <si>
+    <t>1997/12/01</t>
+  </si>
+  <si>
+    <t>1990/02/01</t>
+  </si>
+  <si>
+    <t>1983/05/28</t>
+  </si>
+  <si>
+    <t>1975/02/13</t>
+  </si>
+  <si>
+    <t>1993/05/04</t>
+  </si>
+  <si>
+    <t>1996/06/25</t>
+  </si>
+  <si>
+    <t>1996/02/18</t>
+  </si>
+  <si>
+    <t>1999/01/22</t>
+  </si>
+  <si>
+    <t>1978/12/12</t>
+  </si>
+  <si>
+    <t>2002/10/07</t>
+  </si>
+  <si>
+    <t>2000/04/28</t>
+  </si>
+  <si>
+    <t>1995/04/19</t>
+  </si>
+  <si>
+    <t>1985/03/26</t>
+  </si>
+  <si>
+    <t>1990/1/-01</t>
+  </si>
+  <si>
+    <t>2000/01/01</t>
+  </si>
+  <si>
+    <t>2002/02/20</t>
+  </si>
+  <si>
+    <t>200/03/04</t>
+  </si>
+  <si>
+    <t>2012/09/21</t>
+  </si>
+  <si>
+    <t>1998/03/23</t>
+  </si>
+  <si>
+    <t>1978/03/31</t>
+  </si>
+  <si>
+    <t>1995/02/14</t>
+  </si>
+  <si>
+    <t>1985/12/11</t>
+  </si>
+  <si>
+    <t>1988/10/31</t>
+  </si>
+  <si>
+    <t>2000/03/21</t>
+  </si>
+  <si>
+    <t>1994/03/19</t>
+  </si>
+  <si>
+    <t>1980/12/21</t>
+  </si>
+  <si>
+    <t>1892/12/01</t>
+  </si>
+  <si>
+    <t>2020/03/21</t>
+  </si>
+  <si>
+    <t>2021/03/29</t>
+  </si>
+  <si>
+    <t>2004/07/05</t>
+  </si>
+  <si>
+    <t>2013/07/24</t>
+  </si>
+  <si>
+    <t>2007/04/30</t>
+  </si>
+  <si>
+    <t>2021/03/01</t>
+  </si>
+  <si>
+    <t>2021/06/01</t>
+  </si>
+  <si>
+    <t>2021/01/01</t>
+  </si>
+  <si>
+    <t>2021/10/01</t>
+  </si>
+  <si>
+    <t>2021/06/30</t>
+  </si>
+  <si>
+    <t>2021/12/31</t>
+  </si>
+  <si>
+    <t>2000/01/19 06:30:00</t>
+  </si>
+  <si>
+    <t>2018/12/18 12:15:55</t>
+  </si>
+  <si>
+    <t>2001/11/16 15:35:54</t>
+  </si>
+  <si>
+    <t>2003/01/25 16:45:12</t>
+  </si>
+  <si>
+    <t>2010/07/08 11:05:44</t>
+  </si>
+  <si>
+    <t>2000/01/19 06:50:12</t>
+  </si>
+  <si>
+    <t>2018/12/18 12:36:55</t>
+  </si>
+  <si>
+    <t>2001/11/16 15:55:34</t>
+  </si>
+  <si>
+    <t>2003/01/25 16:59:12</t>
+  </si>
+  <si>
+    <t>2010/07/08 11:09:57</t>
+  </si>
+  <si>
+    <t>E00000006</t>
+  </si>
+  <si>
+    <t>Broken pipes in men's room - water everywhere</t>
+  </si>
+  <si>
+    <t>Garden is full of weeds - take pesticide. All flowers have died</t>
+  </si>
+  <si>
+    <t>Light switches won't work in the meeting room</t>
+  </si>
+  <si>
+    <t>Printer jammed - cannot get paper out and keeps giving an error</t>
+  </si>
+  <si>
+    <t>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</t>
+  </si>
+  <si>
+    <t>E00000009</t>
+  </si>
+  <si>
+    <t>A00000009</t>
+  </si>
+  <si>
+    <t>B00000005</t>
+  </si>
+  <si>
+    <t>Mr B Delivery</t>
+  </si>
+  <si>
+    <t>0124587798</t>
+  </si>
+  <si>
+    <t>5987456565</t>
+  </si>
+  <si>
+    <t>2018/08/25</t>
+  </si>
+  <si>
+    <t>A00000002</t>
+  </si>
+  <si>
+    <t>A00000004</t>
+  </si>
+  <si>
+    <t>A00000006</t>
+  </si>
+  <si>
+    <t>A00000007</t>
+  </si>
+  <si>
+    <t>A00000008</t>
+  </si>
+  <si>
+    <t>A00000010</t>
+  </si>
+  <si>
+    <t>B00000001</t>
+  </si>
+  <si>
+    <t>B00000004</t>
+  </si>
+  <si>
+    <t>B00000006</t>
+  </si>
+  <si>
+    <t>B00000007</t>
+  </si>
+  <si>
+    <t>B00000010</t>
+  </si>
+  <si>
+    <t>B00000008</t>
+  </si>
+  <si>
+    <t>B00000009</t>
+  </si>
+  <si>
+    <t>2005/08/17 15:23:49</t>
+  </si>
+  <si>
+    <t>2005/08/17 15:03:44</t>
+  </si>
+  <si>
+    <t>2021/01/14 10:11:55</t>
+  </si>
+  <si>
+    <t>2021/01/14 10:25:42</t>
+  </si>
+  <si>
+    <t>2021/04/28 14:25:55</t>
+  </si>
+  <si>
+    <t>2021/04/28 14:55:58</t>
+  </si>
+  <si>
+    <t>2021/03/13 09:54:41</t>
+  </si>
+  <si>
+    <t>2021/03/13 10:05:36</t>
+  </si>
+  <si>
+    <t>2020/05/29 12:04:48</t>
+  </si>
+  <si>
+    <t>2020/05/29 12:34:55</t>
+  </si>
+  <si>
+    <t>2020/08/07 07:10:58</t>
+  </si>
+  <si>
+    <t>2020/08/07 07:18:22</t>
+  </si>
+  <si>
+    <t>2021/04/27 09:02:55</t>
+  </si>
+  <si>
+    <t>2021/04/27 09:45:12</t>
+  </si>
+  <si>
+    <t>2021/01/19 13:45:55</t>
+  </si>
+  <si>
+    <t>2021/01/19 13:59:54</t>
+  </si>
+  <si>
+    <t>2019/12/01 12:05:07</t>
+  </si>
+  <si>
+    <t>2019/12/01 12:15:47</t>
+  </si>
+  <si>
+    <t>2019/07/25 11:11:11</t>
+  </si>
+  <si>
+    <t>2019/07/25 11:22:22</t>
+  </si>
+  <si>
+    <t>2017/09/11 07:35:04</t>
+  </si>
+  <si>
+    <t>2017/09/11 07:48:56</t>
+  </si>
+  <si>
+    <t>2021/05/04 16:05:44</t>
+  </si>
+  <si>
+    <t>2021/05/14 16:19:07</t>
+  </si>
+  <si>
+    <t>2021/05/01 12:44:17</t>
+  </si>
+  <si>
+    <t>2021/05/01 12:54:45</t>
+  </si>
+  <si>
+    <t>2018/03/31 14:47:23</t>
+  </si>
+  <si>
+    <t>2018/03/31 14:58:02</t>
+  </si>
+  <si>
+    <t>2021/04/08 09:23:45</t>
+  </si>
+  <si>
+    <t>2021/04/08 09:42:55</t>
+  </si>
+  <si>
+    <t>Wasps outside the main door</t>
+  </si>
+  <si>
+    <t>Printer does not want to accept the cartridge</t>
+  </si>
+  <si>
+    <t>Rats can be heard in the roof</t>
+  </si>
+  <si>
+    <t>No incoming calls are being received - lines seem to be down</t>
+  </si>
+  <si>
+    <t>Routine maintenance on HP printer</t>
+  </si>
+  <si>
+    <t>WiFi has been off for three days - cables have been chewed</t>
+  </si>
+  <si>
+    <t>Roses are being eaten by lice - take pesticides for 4 rose beds</t>
+  </si>
+  <si>
+    <t>Light bulbs are no longer dimming</t>
+  </si>
+  <si>
+    <t>Door is jammed and people are trapped inside the bathroom</t>
+  </si>
+  <si>
+    <t>Women's bathroom is underwater - potential burst pipe</t>
+  </si>
+  <si>
+    <t>Bird has flown throught glass window - glass needs replacing</t>
+  </si>
+  <si>
+    <t>Computers not connecting to the in-house WiFi</t>
+  </si>
+  <si>
+    <t>Samsung fridge in office is not receiving power - potential cable or plug damage</t>
+  </si>
+  <si>
+    <t>Replacement of old keyboard and mouses needed in office</t>
+  </si>
+  <si>
+    <t>Laser printer is not printing correctly</t>
+  </si>
+  <si>
+    <t>SPE3</t>
+  </si>
+  <si>
+    <t>BRO8</t>
+  </si>
+  <si>
+    <t>GOL3</t>
+  </si>
+  <si>
+    <t>SIL5</t>
+  </si>
+  <si>
+    <t>BRO7</t>
+  </si>
+  <si>
+    <t>PLA2</t>
+  </si>
+  <si>
+    <t>SIL6</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -719,9 +1524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1003,121 +1808,310 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="A1:E1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="6" max="6" width="132" style="4" customWidth="1"/>
-    <col min="7" max="16" width="9.109375" style="4"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="132" style="3" customWidth="1"/>
+    <col min="7" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+        <v>119</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="2">
         <v>1684</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1932</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="2">
         <v>1029</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
         <v>7102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="2">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
         <v>182</v>
       </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1984</v>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1127,141 +2121,601 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B5DE8-4E16-41E8-BDD7-94A9F8EA519D}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="str" cm="1">
         <f t="array" ref="C2:C6">ServiceRequest!C2:C6</f>
-        <v>Broken pipes</v>
-      </c>
-      <c r="D2">
+        <v>Broken pipes in men's room - water everywhere</v>
+      </c>
+      <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <v>Garden needs weeds removed</v>
-      </c>
-      <c r="D3">
+        <v>Garden is full of weeds - take pesticide. All flowers have died</v>
+      </c>
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="str">
-        <v>Light switch won't work</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+        <v>Light switches won't work in the meeting room</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <v>Printer jammed</v>
-      </c>
-      <c r="D5">
+        <v>Printer jammed - cannot get paper out and keeps giving an error</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C6" t="str">
-        <v>Wall has paint chips</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="B7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2">
         <v>4</v>
       </c>
-      <c r="F6">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>10</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>6</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>4</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10</v>
+      </c>
+      <c r="F20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>3</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>13</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7</v>
+      </c>
+      <c r="F26" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>7</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>3</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1273,33 +2727,271 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729D5E5-EBA3-4AD4-89B3-6D680D0AD05C}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="4" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" t="s">
-        <v>179</v>
-      </c>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1308,226 +3000,462 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285A87D0-6993-4E9A-92DB-3C38401DBA37}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
-        <v>9861237651092</v>
+      <c r="F2" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>87</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="3">
-        <v>1348302832952</v>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H3">
+        <v>335</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3">
-        <v>8305283029467</v>
+      <c r="F4" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3">
-        <v>7502837592035</v>
+      <c r="F5" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H5">
+        <v>337</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3">
-        <v>9305832739295</v>
+      <c r="F6" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H6">
+        <v>338</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="3">
-        <v>9696857415236</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
+      <c r="F14" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1538,6 +3466,13 @@
     <hyperlink ref="E5" r:id="rId4" xr:uid="{9C713FE9-3584-44D3-A948-B3D59640D65B}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{17631E80-A551-4CF4-B424-0AE6775C57A1}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{69B30157-E0C9-4862-AB13-30420E3A6EE1}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{2BFCB5C5-8FD0-454F-B6F2-586404801100}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{5A160CA0-6E5B-4C54-BD33-C27437F93ED2}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{40A56487-E364-4986-BDC4-27654463D6B9}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{748C7818-FA16-4F0A-8267-8A53AF2EC6CA}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{D0DFE2B2-B677-4761-B70B-53A26BC92367}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{70559EC6-B895-40D6-8E5B-175C04F90B5C}"/>
+    <hyperlink ref="E14" r:id="rId13" xr:uid="{73625884-7EB2-4B83-911E-CD60E57C5232}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1545,65 +3480,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A000B-1196-4AED-9DC8-9045892B92EA}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="117.5546875" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="117.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -1613,183 +3612,369 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C11AAE-C941-4DD6-B77C-6477F7E27E50}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>348</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
+        <v>43</v>
+      </c>
+      <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>62</v>
+        <v>221</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>161</v>
+        <v>239</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G10" t="s">
-        <v>109</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="B11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1798,6 +3983,11 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{8C4E8F2B-C5FB-4081-B349-FA92E58D258D}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{B149961C-2F29-4A06-8690-3E8BB7CF1C96}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{487CF963-2B51-48A5-B7B8-47D6CAD61262}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{D0B6C8AA-C283-42A9-81EC-42ECF5546A18}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{DF9933E5-7795-4782-B54A-0BDA83589774}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{F31D0679-125C-4447-B813-0C4D1B102F8C}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{9E8DF70F-7986-4FFA-9841-1055D59CC5FB}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{B205DBFD-D897-4D83-843D-BD03E08A3A7C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1805,136 +3995,278 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11E3885-7698-4E55-9C9B-8066A54A1099}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3">
+        <v>357</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>358</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5">
+        <v>359</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>264</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
+        <v>360</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1943,121 +4275,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070B003-D1C3-4877-8BC6-170798607FD7}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.21875" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2">
+        <v>280</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3">
+        <v>281</v>
+      </c>
+      <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4">
+        <v>282</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5">
+        <v>278</v>
+      </c>
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+        <v>63</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F6">
+        <v>367</v>
+      </c>
+      <c r="F6" s="2">
         <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2067,60 +4505,176 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598067A-EBA1-43E2-9A97-F1C6418E3363}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>310</v>
+      </c>
+      <c r="B10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2130,118 +4684,390 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC00209-E711-4682-94E1-7E66A0527FC1}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F21" sqref="F7:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="73.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>372</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>378</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>374</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="C4" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>380</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>382</v>
       </c>
       <c r="F5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>376</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>381</v>
       </c>
       <c r="C6" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
-      </c>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C7" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C9" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C12" t="s">
+        <v>397</v>
+      </c>
+      <c r="E12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D15" t="s">
+        <v>404</v>
+      </c>
+      <c r="E15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E17" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C18" t="s">
+        <v>399</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D19" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C20" t="s">
+        <v>400</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>407</v>
+      </c>
+      <c r="E21" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2250,101 +5076,332 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230652B2-11AE-4461-8C3B-930E31C235FB}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="str">
         <f>Call!F2</f>
-        <v>Broken pipes</v>
-      </c>
-      <c r="D2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+        <v>Broken pipes in men's room - water everywhere</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="str">
         <f>Call!F3</f>
-        <v>Garden needs weeds removed</v>
-      </c>
-      <c r="D3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+        <v>Garden is full of weeds - take pesticide. All flowers have died</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <f>Call!F4</f>
-        <v>Light switch won't work</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+        <v>Light switches won't work in the meeting room</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5" s="2" t="str">
         <f>Call!F5</f>
-        <v>Printer jammed</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>Printer jammed - cannot get paper out and keeps giving an error</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C6" t="str">
+      <c r="C6" s="2" t="str">
         <f>Call!F6</f>
-        <v>Wall has paint chips</v>
-      </c>
-      <c r="D6" t="s">
-        <v>166</v>
+        <v>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>Call!F7</f>
+        <v>Wasps outside the main door</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>Call!F8</f>
+        <v>Printer does not want to accept the cartridge</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>Call!F9</f>
+        <v>Rats can be heard in the roof</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>Call!F10</f>
+        <v>No incoming calls are being received - lines seem to be down</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>Call!F11</f>
+        <v>Routine maintenance on HP printer</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>Call!F12</f>
+        <v>WiFi has been off for three days - cables have been chewed</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>Call!F13</f>
+        <v>Roses are being eaten by lice - take pesticides for 4 rose beds</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>Call!F14</f>
+        <v>Light bulbs are no longer dimming</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>Call!F15</f>
+        <v>Door is jammed and people are trapped inside the bathroom</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>Call!F16</f>
+        <v>Women's bathroom is underwater - potential burst pipe</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>Call!F17</f>
+        <v>Bird has flown throught glass window - glass needs replacing</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>Call!F18</f>
+        <v>Computers not connecting to the in-house WiFi</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>Call!F19</f>
+        <v>Samsung fridge in office is not receiving power - potential cable or plug damage</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>Call!F20</f>
+        <v>Replacement of old keyboard and mouses needed in office</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>Call!F21</f>
+        <v>Laser printer is not printing correctly</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/SQL Collection/DataBaseRecords.xlsx
+++ b/SQL Collection/DataBaseRecords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lijani\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lijani\Documents\GitHub\PremierService-Solutions-FrontEnd\SQL Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CC27D-2165-47A3-9AB9-B719B61BE770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A285BF-2F07-430E-AF45-1401AB0A07C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="832" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,19 @@
     <sheet name="ServiceRequest" sheetId="10" r:id="rId9"/>
     <sheet name="Job" sheetId="11" r:id="rId10"/>
     <sheet name="Contract" sheetId="27" r:id="rId11"/>
+    <sheet name="ContractState" sheetId="38" r:id="rId12"/>
+    <sheet name="ClientContractLink" sheetId="29" r:id="rId13"/>
+    <sheet name="ClientBusinessEmployee" sheetId="28" r:id="rId14"/>
+    <sheet name="JobEmployeeLink" sheetId="30" r:id="rId15"/>
+    <sheet name="ServiceContractLink" sheetId="31" r:id="rId16"/>
+    <sheet name="ServiceContractStateLink" sheetId="32" r:id="rId17"/>
+    <sheet name="ServicePackageLink" sheetId="33" r:id="rId18"/>
+    <sheet name="ServicePackageStateLink" sheetId="34" r:id="rId19"/>
+    <sheet name="ServiceRequestJobLink" sheetId="35" r:id="rId20"/>
+    <sheet name="ServiceRequestSpecialisationLin" sheetId="36" r:id="rId21"/>
+    <sheet name="SpecialisationEmployeeLink" sheetId="37" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="610">
   <si>
     <t>streetName</t>
   </si>
@@ -1462,6 +1472,441 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>2004/05/25</t>
+  </si>
+  <si>
+    <t>2005/05/25</t>
+  </si>
+  <si>
+    <t>2008/10/20</t>
+  </si>
+  <si>
+    <t>2010/10/20</t>
+  </si>
+  <si>
+    <t>2015/01/01</t>
+  </si>
+  <si>
+    <t>2015/12/31</t>
+  </si>
+  <si>
+    <t>2016/01/01</t>
+  </si>
+  <si>
+    <t>2018/12/31</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2017/05/01</t>
+  </si>
+  <si>
+    <t>2020/10/01</t>
+  </si>
+  <si>
+    <t>Building Maintenance</t>
+  </si>
+  <si>
+    <t>Garden Maintenance</t>
+  </si>
+  <si>
+    <t>General Equipment Maintenance</t>
+  </si>
+  <si>
+    <t>Office Equipment Maintenance</t>
+  </si>
+  <si>
+    <t>Communication Equipment Maintenance</t>
+  </si>
+  <si>
+    <t>2019/01/01</t>
+  </si>
+  <si>
+    <t>2020/05/31</t>
+  </si>
+  <si>
+    <t>2021/05/31</t>
+  </si>
+  <si>
+    <t>Property Maintenace</t>
+  </si>
+  <si>
+    <t>2020/06/01</t>
+  </si>
+  <si>
+    <t>2022/06/01</t>
+  </si>
+  <si>
+    <t>2020/01/01</t>
+  </si>
+  <si>
+    <t>2022/12/31</t>
+  </si>
+  <si>
+    <t>Wireless Connectivity Maintenance</t>
+  </si>
+  <si>
+    <t>2021/04/20</t>
+  </si>
+  <si>
+    <t>2023/04/20</t>
+  </si>
+  <si>
+    <t>2021/05/01</t>
+  </si>
+  <si>
+    <t>2021/05/19</t>
+  </si>
+  <si>
+    <t>Bathroom Repairs</t>
+  </si>
+  <si>
+    <t>Routine Maintenance</t>
+  </si>
+  <si>
+    <t>2022/01/01</t>
+  </si>
+  <si>
+    <t>2021/02/01</t>
+  </si>
+  <si>
+    <t>businessID</t>
+  </si>
+  <si>
+    <t>contractID</t>
+  </si>
+  <si>
+    <t>clientIndividualID</t>
+  </si>
+  <si>
+    <t>clientBusinessID</t>
+  </si>
+  <si>
+    <t>jobID</t>
+  </si>
+  <si>
+    <t>servicePackageID</t>
+  </si>
+  <si>
+    <t>serviceID</t>
+  </si>
+  <si>
+    <t>serviceRequestID</t>
+  </si>
+  <si>
+    <t>specialisationRequiredID</t>
+  </si>
+  <si>
+    <t>specialisationID</t>
+  </si>
+  <si>
+    <t>Liam</t>
+  </si>
+  <si>
+    <t>Stevens</t>
+  </si>
+  <si>
+    <t>0870120506</t>
+  </si>
+  <si>
+    <t>stevens.liam@gmail.com</t>
+  </si>
+  <si>
+    <t>9010100056023</t>
+  </si>
+  <si>
+    <t>1990/10/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole </t>
+  </si>
+  <si>
+    <t>Horwood</t>
+  </si>
+  <si>
+    <t>0761154212</t>
+  </si>
+  <si>
+    <t>horwood@hotmail.com</t>
+  </si>
+  <si>
+    <t>8912120023086</t>
+  </si>
+  <si>
+    <t>1989/12/12</t>
+  </si>
+  <si>
+    <t>Nicholas</t>
+  </si>
+  <si>
+    <t>0764451233</t>
+  </si>
+  <si>
+    <t>horwood1@hotmail.com</t>
+  </si>
+  <si>
+    <t>8704040056088</t>
+  </si>
+  <si>
+    <t>1987/04/04</t>
+  </si>
+  <si>
+    <t>oldContractID</t>
+  </si>
+  <si>
+    <t>2005/01/25</t>
+  </si>
+  <si>
+    <t>2005/05/20</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>2009/10/20</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>40000</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>15800</t>
+  </si>
+  <si>
+    <t>2021/10/31</t>
+  </si>
+  <si>
+    <t>2019/10/01</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>25000</t>
+  </si>
+  <si>
+    <t>2021/05/28</t>
+  </si>
+  <si>
+    <t>2020/10/31</t>
+  </si>
+  <si>
+    <t>GOL4</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2022/01/31</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>18000</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Telemarketing</t>
+  </si>
+  <si>
+    <t>0457894562</t>
+  </si>
+  <si>
+    <t>samsam@gmail.com</t>
+  </si>
+  <si>
+    <t>Juniper</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>0784561111</t>
+  </si>
+  <si>
+    <t>junefri@gmail.com</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Garden Manager</t>
+  </si>
+  <si>
+    <t>0752369874</t>
+  </si>
+  <si>
+    <t>hallman@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hayley</t>
+  </si>
+  <si>
+    <t>Shae</t>
+  </si>
+  <si>
+    <t>Plumber</t>
+  </si>
+  <si>
+    <t>0784568899</t>
+  </si>
+  <si>
+    <t>shae.hayley@gmail.com</t>
+  </si>
+  <si>
+    <t>Miena</t>
+  </si>
+  <si>
+    <t>van der Vyver</t>
+  </si>
+  <si>
+    <t>0568974555</t>
+  </si>
+  <si>
+    <t>vdv.miena@vodamail.com</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Finances</t>
+  </si>
+  <si>
+    <t>0824569874</t>
+  </si>
+  <si>
+    <t>amanda@industries.co.za</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Cleaning Manager</t>
+  </si>
+  <si>
+    <t>0786541200</t>
+  </si>
+  <si>
+    <t>bushman@gmail.com</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>0825994455</t>
+  </si>
+  <si>
+    <t>olivia@hotmail.com</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>0687458985</t>
+  </si>
+  <si>
+    <t>paulhougton@gmail.com</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>0865641233</t>
+  </si>
+  <si>
+    <t>venter.michelle@gmail.com</t>
+  </si>
+  <si>
+    <t>Bernadette</t>
+  </si>
+  <si>
+    <t>Trello</t>
+  </si>
+  <si>
+    <t>Site Manager</t>
+  </si>
+  <si>
+    <t>0456987777</t>
+  </si>
+  <si>
+    <t>bernie.trello@gmail.com</t>
+  </si>
+  <si>
+    <t>Junanda</t>
+  </si>
+  <si>
+    <t>Bojangle</t>
+  </si>
+  <si>
+    <t>0754123384</t>
+  </si>
+  <si>
+    <t>bojangles@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Jillian</t>
+  </si>
+  <si>
+    <t>0785641255</t>
+  </si>
+  <si>
+    <t>jill.ash@gmail.com</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>0764451115</t>
+  </si>
+  <si>
+    <t>kingcar@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +2256,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,8 +2568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B5DE8-4E16-41E8-BDD7-94A9F8EA519D}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2335,8 +2780,8 @@
       <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
-        <v>5</v>
+      <c r="F10" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2355,8 +2800,8 @@
       <c r="E11" s="2">
         <v>8</v>
       </c>
-      <c r="F11" s="2">
-        <v>6</v>
+      <c r="F11" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2395,8 +2840,8 @@
       <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="2">
-        <v>5</v>
+      <c r="F13" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2595,8 +3040,8 @@
       <c r="E23" s="2">
         <v>12</v>
       </c>
-      <c r="F23" s="2">
-        <v>6</v>
+      <c r="F23" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2635,8 +3080,8 @@
       <c r="E25" s="2">
         <v>11</v>
       </c>
-      <c r="F25" s="2">
-        <v>4</v>
+      <c r="F25" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2655,8 +3100,8 @@
       <c r="E26" s="2">
         <v>7</v>
       </c>
-      <c r="F26" s="2">
-        <v>5</v>
+      <c r="F26" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2729,8 +3174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729D5E5-EBA3-4AD4-89B3-6D680D0AD05C}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,7 +3183,7 @@
     <col min="1" max="2" width="27.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="5" width="27.5703125" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,124 +3207,246 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -2992,6 +3559,1846 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB588B5-A09D-41B5-A4E7-FD14543CAC90}">
+  <dimension ref="A1:G22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="4" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033902A5-014A-4552-A1FB-B251320F8B86}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AD4437-4633-4DCE-98BC-91A091D5F0E2}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>609</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{5A9AE0AA-1E55-4AAC-BE90-9F96E72B949C}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{64E0B0B3-2BFC-49E8-B86F-CCC9FBBE7B0A}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{B2F72C7D-2320-4897-AA99-19FC99B680FB}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{2F2CC61C-5EE5-4F2C-9761-5D56109870E8}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{37A9B7FB-EEA6-49D9-A74F-8DCE710D97D2}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{D67777CD-AF48-4DA3-BE77-D2B082280422}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{CF50BE1A-CB85-4806-889C-908A6DF3C033}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{A2F7E3DE-C308-4874-B05B-D65346EE31DD}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{C8E9B577-CD89-4E7D-8EED-1940202C2AF4}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{EB5B5328-F817-41B1-B456-48FECAC2F08C}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{E10CCC6D-E798-487A-94BB-EF96F3E4A6CB}"/>
+    <hyperlink ref="F13" r:id="rId12" xr:uid="{61C679BE-55F0-4070-B129-9A358EC61BA4}"/>
+    <hyperlink ref="F14" r:id="rId13" xr:uid="{37B32ED7-961B-45F2-9FCD-C171B206F6A4}"/>
+    <hyperlink ref="F15" r:id="rId14" xr:uid="{ECB03443-B4EA-48EB-BAED-74A53C235AE8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8B04A5-8130-4B55-B0CE-739B0F513F4F}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DDE06A-2485-41CD-A4A8-C5870EE7DB1B}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49883B9-D961-4522-BC6F-FD0430E0BD73}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{888CC129-151D-49F2-9EB6-6322C996EB93}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E74FC7F-785F-42AF-A035-14EA8387704C}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3003,15 +5410,15 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
@@ -3136,115 +5543,115 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
+        <v>339</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="I5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>144</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
+        <v>341</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="2">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>115</v>
+        <v>158</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I7" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="2">
-        <v>10</v>
+      <c r="A8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1</v>
+        <v>343</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
@@ -3252,83 +5659,83 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>147</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>147</v>
@@ -3339,25 +5746,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>167</v>
+        <v>508</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>170</v>
+        <v>461</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>171</v>
+        <v>510</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>172</v>
+        <v>511</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>173</v>
+        <v>512</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>147</v>
@@ -3368,25 +5775,25 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>514</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>515</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>190</v>
+        <v>516</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>191</v>
+        <v>517</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>192</v>
+        <v>518</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>345</v>
+        <v>519</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>147</v>
@@ -3397,65 +5804,119 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>520</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>193</v>
+        <v>515</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>195</v>
+        <v>521</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>196</v>
+        <v>522</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>197</v>
+        <v>523</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>346</v>
+        <v>524</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3463,17 +5924,449 @@
     <hyperlink ref="E2" r:id="rId1" xr:uid="{823BB252-E784-4809-9491-8163236AC9CE}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{91822FBF-8BBC-46E8-AD23-268479C18DF2}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{31AD3656-8BD8-4E53-93F3-4E6D9B0F3726}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{9C713FE9-3584-44D3-A948-B3D59640D65B}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{17631E80-A551-4CF4-B424-0AE6775C57A1}"/>
-    <hyperlink ref="E7" r:id="rId6" xr:uid="{69B30157-E0C9-4862-AB13-30420E3A6EE1}"/>
-    <hyperlink ref="E8" r:id="rId7" xr:uid="{2BFCB5C5-8FD0-454F-B6F2-586404801100}"/>
-    <hyperlink ref="E9" r:id="rId8" xr:uid="{5A160CA0-6E5B-4C54-BD33-C27437F93ED2}"/>
-    <hyperlink ref="E10" r:id="rId9" xr:uid="{40A56487-E364-4986-BDC4-27654463D6B9}"/>
-    <hyperlink ref="E11" r:id="rId10" xr:uid="{748C7818-FA16-4F0A-8267-8A53AF2EC6CA}"/>
-    <hyperlink ref="E12" r:id="rId11" xr:uid="{D0DFE2B2-B677-4761-B70B-53A26BC92367}"/>
-    <hyperlink ref="E13" r:id="rId12" xr:uid="{70559EC6-B895-40D6-8E5B-175C04F90B5C}"/>
-    <hyperlink ref="E14" r:id="rId13" xr:uid="{73625884-7EB2-4B83-911E-CD60E57C5232}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{9C713FE9-3584-44D3-A948-B3D59640D65B}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{17631E80-A551-4CF4-B424-0AE6775C57A1}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{69B30157-E0C9-4862-AB13-30420E3A6EE1}"/>
+    <hyperlink ref="E17" r:id="rId7" xr:uid="{2BFCB5C5-8FD0-454F-B6F2-586404801100}"/>
+    <hyperlink ref="E6" r:id="rId8" xr:uid="{5A160CA0-6E5B-4C54-BD33-C27437F93ED2}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{40A56487-E364-4986-BDC4-27654463D6B9}"/>
+    <hyperlink ref="E8" r:id="rId10" xr:uid="{748C7818-FA16-4F0A-8267-8A53AF2EC6CA}"/>
+    <hyperlink ref="E9" r:id="rId11" xr:uid="{D0DFE2B2-B677-4761-B70B-53A26BC92367}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{70559EC6-B895-40D6-8E5B-175C04F90B5C}"/>
+    <hyperlink ref="E11" r:id="rId13" xr:uid="{73625884-7EB2-4B83-911E-CD60E57C5232}"/>
+    <hyperlink ref="E12" r:id="rId14" xr:uid="{9F8DF21B-BED4-40FA-9AF7-32C7CF371229}"/>
+    <hyperlink ref="E13" r:id="rId15" xr:uid="{F9254FBC-69CC-49FA-B12E-9E4ED518C405}"/>
+    <hyperlink ref="E14" r:id="rId16" xr:uid="{CA37763E-C5EE-4011-9FDE-908238603EBC}"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB8D7C6-0240-4ECE-BE64-2CC85BE3FEFC}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC62D1D-0EA8-4378-9170-EAD7A092500C}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A2597C-F110-4421-AB34-615295043718}">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/SQL Collection/DataBaseRecords.xlsx
+++ b/SQL Collection/DataBaseRecords.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lijani\Documents\GitHub\PremierService-Solutions-FrontEnd\SQL Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MatinPersonalStudyProjects\PremierService-Solutions-FrontEnd\SQL Collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A285BF-2F07-430E-AF45-1401AB0A07C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CA32C0-5809-49A1-BBE9-1091D3E56330}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="832" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="832" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Address" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <sheet name="Job" sheetId="11" r:id="rId10"/>
     <sheet name="Contract" sheetId="27" r:id="rId11"/>
     <sheet name="ContractState" sheetId="38" r:id="rId12"/>
-    <sheet name="ClientContractLink" sheetId="29" r:id="rId13"/>
-    <sheet name="ClientBusinessEmployee" sheetId="28" r:id="rId14"/>
+    <sheet name="ClientBusinessEmployee" sheetId="28" r:id="rId13"/>
+    <sheet name="ClientContractLink" sheetId="29" r:id="rId14"/>
     <sheet name="JobEmployeeLink" sheetId="30" r:id="rId15"/>
     <sheet name="ServiceContractLink" sheetId="31" r:id="rId16"/>
     <sheet name="ServiceContractStateLink" sheetId="32" r:id="rId17"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="587">
   <si>
     <t>streetName</t>
   </si>
@@ -316,27 +316,6 @@
     <t>callNotes</t>
   </si>
   <si>
-    <t>E00000001</t>
-  </si>
-  <si>
-    <t>A00000001</t>
-  </si>
-  <si>
-    <t>A00000003</t>
-  </si>
-  <si>
-    <t>A00000005</t>
-  </si>
-  <si>
-    <t>B00000003</t>
-  </si>
-  <si>
-    <t>B00000002</t>
-  </si>
-  <si>
-    <t>E00000002</t>
-  </si>
-  <si>
     <t>0817622651</t>
   </si>
   <si>
@@ -1120,9 +1099,6 @@
     <t>1985/03/26</t>
   </si>
   <si>
-    <t>1990/1/-01</t>
-  </si>
-  <si>
     <t>2000/01/01</t>
   </si>
   <si>
@@ -1225,9 +1201,6 @@
     <t>2010/07/08 11:09:57</t>
   </si>
   <si>
-    <t>E00000006</t>
-  </si>
-  <si>
     <t>Broken pipes in men's room - water everywhere</t>
   </si>
   <si>
@@ -1243,15 +1216,6 @@
     <t>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</t>
   </si>
   <si>
-    <t>E00000009</t>
-  </si>
-  <si>
-    <t>A00000009</t>
-  </si>
-  <si>
-    <t>B00000005</t>
-  </si>
-  <si>
     <t>Mr B Delivery</t>
   </si>
   <si>
@@ -1264,45 +1228,6 @@
     <t>2018/08/25</t>
   </si>
   <si>
-    <t>A00000002</t>
-  </si>
-  <si>
-    <t>A00000004</t>
-  </si>
-  <si>
-    <t>A00000006</t>
-  </si>
-  <si>
-    <t>A00000007</t>
-  </si>
-  <si>
-    <t>A00000008</t>
-  </si>
-  <si>
-    <t>A00000010</t>
-  </si>
-  <si>
-    <t>B00000001</t>
-  </si>
-  <si>
-    <t>B00000004</t>
-  </si>
-  <si>
-    <t>B00000006</t>
-  </si>
-  <si>
-    <t>B00000007</t>
-  </si>
-  <si>
-    <t>B00000010</t>
-  </si>
-  <si>
-    <t>B00000008</t>
-  </si>
-  <si>
-    <t>B00000009</t>
-  </si>
-  <si>
     <t>2005/08/17 15:23:49</t>
   </si>
   <si>
@@ -1498,9 +1423,6 @@
     <t>2018/12/31</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>2017/05/01</t>
   </si>
   <si>
@@ -1907,6 +1829,15 @@
   </si>
   <si>
     <t>kingcar@gmail.com</t>
+  </si>
+  <si>
+    <t>Statement</t>
+  </si>
+  <si>
+    <t>1990/01/01</t>
+  </si>
+  <si>
+    <t>1111/11/11</t>
   </si>
 </sst>
 </file>
@@ -1965,13 +1896,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2256,7 +2188,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2270,7 +2202,7 @@
     <col min="7" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2278,7 +2210,7 @@
         <v>64</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>65</v>
@@ -2286,33 +2218,40 @@
       <c r="E1" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>1684</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="str">
+        <f>"INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;C2&amp;"')"</f>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('21 Foxhound','Midrand','6','1684','Johannesburg')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2">
         <v>3</v>
@@ -2320,33 +2259,41 @@
       <c r="E3" s="2">
         <v>1932</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="str">
+        <f t="shared" ref="F3:F17" si="0">"INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;C3&amp;"')"</f>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('32 Maple','Hatfield','3','1932','Pretoria')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2">
         <v>1029</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('63 Main','Fourways','4','1029','Cape Town')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -2354,16 +2301,20 @@
       <c r="E5" s="2">
         <v>7102</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('92 Maxwell','Lonehill','1','7102','Pretoria')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2">
         <v>3</v>
@@ -2371,16 +2322,20 @@
       <c r="E6" s="2">
         <v>1984</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('55 Church','Brooklyn','3','1984','Pretoria')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2388,33 +2343,41 @@
       <c r="E7" s="2">
         <v>1685</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('78 Bloodwood','Rosebank','1','1685','Johannesburg')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2">
         <v>1687</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('89 Verdi','Houghton','2','1687','Johannesburg')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
@@ -2422,16 +2385,20 @@
       <c r="E9" s="2">
         <v>7503</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('24 Kamp','Marshall','5','7503','Parow')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
@@ -2439,33 +2406,41 @@
       <c r="E10" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('1172 Plane','Craighall','8','5000','Durban')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E11" s="2">
         <v>1672</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('12 Dickens','Parktown','7','1672','Johannesburg')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D12" s="2">
         <v>4</v>
@@ -2473,16 +2448,20 @@
       <c r="E12" s="2">
         <v>6650</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('2314 Oxford','Irene','4','6650','Outshoorn')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C13" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D13" s="2">
         <v>4</v>
@@ -2490,16 +2469,20 @@
       <c r="E13" s="2">
         <v>6651</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('99 Orange','Kempton','4','6651','Kempton Park')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2507,16 +2490,20 @@
       <c r="E14" s="2">
         <v>8804</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('100 Kryger','Mountainview','1','8804','Pretoria')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D15" s="2">
         <v>7</v>
@@ -2524,16 +2511,20 @@
       <c r="E15" s="2">
         <v>4458</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('1169 Ash','Colbyn','7','4458','Kilner Park')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D16" s="2">
         <v>8</v>
@@ -2541,22 +2532,30 @@
       <c r="E16" s="2">
         <v>3698</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('91 Hayley','Norwood','8','3698','Durban')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C17" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2">
         <v>9</v>
       </c>
       <c r="E17" s="2">
         <v>21</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Address (streetName, suburb, province, postalcode,city) VALUES ('67 High','Bedfordview','9','21','Nelspruit')</v>
       </c>
     </row>
   </sheetData>
@@ -2566,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213B5DE8-4E16-41E8-BDD7-94A9F8EA519D}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2580,30 +2579,33 @@
     <col min="4" max="4" width="24.85546875" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" customWidth="1"/>
     <col min="6" max="6" width="27.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="227.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2623,8 +2625,12 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"', '"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('1','1', 'Broken pipes in men's room - water everywhere','0','3','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2643,8 +2649,12 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G29" si="0">"INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"', '"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('2','2', 'Garden is full of weeds - take pesticide. All flowers have died','0','1','2')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2663,8 +2673,12 @@
       <c r="F4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('3','3', 'Light switches won't work in the meeting room','1','2','3')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2683,13 +2697,17 @@
       <c r="F5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('4','4', 'Printer jammed - cannot get paper out and keeps giving an error','0','5','2')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="C6" t="str">
         <v>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</v>
@@ -2703,16 +2721,20 @@
       <c r="F6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('5','16', 'Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)','1','4','2')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -2723,16 +2745,20 @@
       <c r="F7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('5','5', 'Wasps outside the main door','0','10','5')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2743,16 +2769,20 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('10','12', 'Printer does not want to accept the cartridge','1','11','1')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>464</v>
+        <v>439</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>440</v>
+        <v>415</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -2763,16 +2793,20 @@
       <c r="F9" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('14','20', 'Rats can be heard in the roof','2','5','2')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>416</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
@@ -2781,18 +2815,22 @@
         <v>6</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('7','5', 'No incoming calls are being received - lines seem to be down','1','6','1')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>442</v>
+        <v>417</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -2801,18 +2839,22 @@
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('5','4', 'Routine maintenance on HP printer','0','8','2')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>443</v>
+        <v>418</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -2823,16 +2865,20 @@
       <c r="F12" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('7','11', 'WiFi has been off for three days - cables have been chewed','0','7','4')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -2841,18 +2887,22 @@
         <v>9</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('6','5', 'Roses are being eaten by lice - take pesticides for 4 rose beds','0','9','1')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
@@ -2863,16 +2913,20 @@
       <c r="F14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('1','6', 'Light bulbs are no longer dimming','1','10','2')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -2883,16 +2937,20 @@
       <c r="F15" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('10','10', 'Door is jammed and people are trapped inside the bathroom','0','4','1')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>8</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>460</v>
+        <v>435</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
@@ -2903,16 +2961,20 @@
       <c r="F16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('8','19', 'Women's bathroom is underwater - potential burst pipe','2','3','2')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -2923,16 +2985,20 @@
       <c r="F17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('6','13', 'Bird has flown throught glass window - glass needs replacing','0','2','1')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -2943,16 +3009,20 @@
       <c r="F18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('5','5', 'Computers not connecting to the in-house WiFi','0','1','1')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -2963,16 +3033,20 @@
       <c r="F19" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('4','8', 'Samsung fridge in office is not receiving power - potential cable or plug damage','0','1','5')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>451</v>
+        <v>426</v>
       </c>
       <c r="D20" s="2">
         <v>1</v>
@@ -2983,16 +3057,20 @@
       <c r="F20" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('9','4', 'Replacement of old keyboard and mouses needed in office','1','10','4')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>11</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>452</v>
+        <v>427</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -3003,16 +3081,20 @@
       <c r="F21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('11','10', 'Laser printer is not printing correctly','0','3','1')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="D22" s="2">
         <v>2</v>
@@ -3023,16 +3105,20 @@
       <c r="F22" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('12','15', 'Roses are being eaten by lice - take pesticides for 4 rose beds','2','13','3')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -3041,18 +3127,22 @@
         <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('7','7', 'Light bulbs are no longer dimming','0','12','2')</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>446</v>
+        <v>421</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
@@ -3061,18 +3151,22 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('9','9', 'Door is jammed and people are trapped inside the bathroom','1','10','1')</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>447</v>
+        <v>422</v>
       </c>
       <c r="D25" s="2">
         <v>0</v>
@@ -3081,18 +3175,22 @@
         <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('7','7', 'Women's bathroom is underwater - potential burst pipe','0','11','2')</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>448</v>
+        <v>423</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
@@ -3101,18 +3199,22 @@
         <v>7</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('4','14', 'Bird has flown throught glass window - glass needs replacing','1','7','1')</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="D27" s="2">
         <v>0</v>
@@ -3123,16 +3225,20 @@
       <c r="F27" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('12','18', 'Computers not connecting to the in-house WiFi','0','7','4')</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>450</v>
+        <v>425</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -3143,16 +3249,20 @@
       <c r="F28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('3','10', 'Samsung fridge in office is not receiving power - potential cable or plug damage','1','5','1')</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="D29" s="2">
         <v>1</v>
@@ -3162,6 +3272,10 @@
       </c>
       <c r="F29" s="2">
         <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Job](addressId,ServiceRequestID,notes,currentState,specialisationId,amountOfEmployeesNeeded) VALUES ('1','17', 'Light bulbs are no longer dimming','1','4','2')</v>
       </c>
     </row>
   </sheetData>
@@ -3172,10 +3286,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A729D5E5-EBA3-4AD4-89B3-6D680D0AD05C}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3184,268 +3298,360 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="5" width="27.5703125" customWidth="1"/>
     <col min="6" max="6" width="45.140625" customWidth="1"/>
+    <col min="7" max="7" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2004/05/25','2005/05/25','0','','0','Building Maintenance')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F3" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G16" si="0">"INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2008/10/20','2010/10/20','0','','0','Garden Maintenance')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F4" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2015/01/01','2015/12/31','0','','0','General Equipment Maintenance')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>473</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2016/01/01','2018/12/31','0','','0','Office Equipment Maintenance')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2017/05/01','2020/10/01','0','','0','Communication Equipment Maintenance')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2019/01/01','2021/12/31','1','','0','Building Maintenance')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2020/05/31','2021/05/31','1','','0','Property Maintenace')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2020/06/01','2022/06/01','1','','0','Office Equipment Maintenance')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2020/01/01','2022/12/31','1','','0','Communication Equipment Maintenance')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/01/01','2021/12/31','1','','0','Wireless Connectivity Maintenance')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/04/20','2023/04/20','1','','0','Garden Maintenance')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F13" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/05/01','2021/05/19','1','','0','Bathroom Repairs')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>469</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/01/01','2021/06/30','1','','0','Routine Maintenance')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>496</v>
+        <v>470</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>458</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/03/01','2022/01/01','1','','0','Property Maintenace')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Contract]([startDate],[endDate],[activeContract],priorityLevel,price,contractType) VALUES('2021/02/01','2021/05/01','1','','0','Communication Equipment Maintenance')</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3567,10 +3773,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB588B5-A09D-41B5-A4E7-FD14543CAC90}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3580,512 +3786,600 @@
     <col min="4" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="249.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>531</v>
+        <v>505</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="str">
+        <f>"INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"',(SELECT contractNumber FROM [Contract] WHERE contractID = '"&amp;G2&amp;"'))"</f>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2004/05/25','2005/01/25','0','BRO8','40000','Building Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '1'))</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H22" si="0">"INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"',(SELECT contractNumber FROM [Contract] WHERE contractID = '"&amp;G3&amp;"'))"</f>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2004/05/25','2005/05/20','0','SIL6','45000','Building Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '1'))</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2008/10/20','2009/10/20','0','PLA2','20000','Garden Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '2'))</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2008/10/20','2010/10/20','0','BRO7','12000','Garden Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '2'))</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>533</v>
+        <v>507</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2015/01/01','2015/12/31','0','GOL3','16000','General Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '3'))</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="G7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2016/01/01','2018/12/31','0','GOL3','14000','Office Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '4'))</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>535</v>
+        <v>509</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2017/05/01','2020/10/01','0','PLA2','15800','Communication Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '5'))</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>536</v>
+        <v>510</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>538</v>
+        <v>512</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2019/01/01','2021/10/31','1','BRO8','17000','Building Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '6'))</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>539</v>
+        <v>513</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="G10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2019/10/01','2021/12/31','1','GOL3','25000','Building Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '6'))</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>540</v>
+        <v>514</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="G11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2020/05/31','2021/05/28','1','PLA1','10000','Property Maintenace',(SELECT contractNumber FROM [Contract] WHERE contractID = '7'))</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>541</v>
+        <v>515</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>544</v>
+        <v>518</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>484</v>
+        <v>458</v>
       </c>
       <c r="G12">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2020/10/31','2021/05/31','1','GOL4','8000','Property Maintenace',(SELECT contractNumber FROM [Contract] WHERE contractID = '7'))</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>486</v>
+        <v>460</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2020/06/01','2022/06/01','1','SIL5','5000','Office Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '8'))</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>487</v>
+        <v>461</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2020/01/01','2022/01/31','1','BRO7','10000','Communication Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '9'))</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>485</v>
+        <v>459</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="G15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2020/06/01','2022/01/31','1','BRO7','10000','Communication Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '9'))</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>542</v>
+        <v>516</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>489</v>
+        <v>463</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/01/01','2021/12/31','1','GOL4','14500','Wireless Connectivity Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '10'))</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>459</v>
+        <v>434</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G17">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/04/20','2023/04/20','1','SIL6','18000','Garden Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '11'))</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G18">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/04/20','2023/04/20','1','SIL5','20000','Garden Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '11'))</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>490</v>
+        <v>464</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>491</v>
+        <v>465</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>549</v>
+        <v>523</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G19">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/04/20','2023/04/20','1','BRO8','13000','Garden Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '11'))</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="G20">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/05/01','2021/05/19','1','SIL5','20000','Bathroom Repairs',(SELECT contractNumber FROM [Contract] WHERE contractID = '12'))</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>530</v>
+        <v>504</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="G21">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/05/01','2021/05/19','1','SIL5','20000','Bathroom Repairs',(SELECT contractNumber FROM [Contract] WHERE contractID = '12'))</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>497</v>
+        <v>471</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>492</v>
+        <v>466</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>455</v>
+        <v>430</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>532</v>
+        <v>506</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="G22">
         <v>15</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [ContractState]([startDate],[endDate],[activeContract],priorityLevel,price,contractType,oldContractId) VALUES('2021/02/01','2021/05/01','0','GOL3','12000','Communication Equipment Maintenance',(SELECT contractNumber FROM [Contract] WHERE contractID = '15'))</v>
       </c>
     </row>
   </sheetData>
@@ -4094,271 +4388,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033902A5-014A-4552-A1FB-B251320F8B86}">
-  <dimension ref="A1:C30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AD4437-4633-4DCE-98BC-91A091D5F0E2}">
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87AD4437-4633-4DCE-98BC-91A091D5F0E2}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4367,11 +4401,12 @@
     <col min="2" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="171.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>67</v>
@@ -4388,285 +4423,344 @@
       <c r="F1" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('10','Samuel','Jackson','Telemarketing','0457894562','samsam@gmail.com')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G15" si="0">"INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('2','Juniper','Friday','HR','0784561111','junefri@gmail.com')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('3','Greg','Hall','Garden Manager','0752369874','hallman@hotmail.com')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('5','Hayley','Shae','Plumber','0784568899','shae.hayley@gmail.com')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('6','Miena','van der Vyver','Telemarketing','0568974555','vdv.miena@vodamail.com')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('6','Amanda','Marshall','Finances','0824569874','amanda@industries.co.za')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F8" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('4','George','Bush','Cleaning Manager','0786541200','bushman@gmail.com')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D9" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="F9" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('7','Olivia','Morrison','Finances','0825994455','olivia@hotmail.com')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('10','Paul','Houghton','HR','0687458985','paulhougton@gmail.com')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F11" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('10','Michelle','Venter','Finances','0865641233','venter.michelle@gmail.com')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F12" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('9','Bernadette','Trello','Site Manager','0456987777','bernie.trello@gmail.com')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="F13" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('9','Junanda','Bojangle','Finances','0754123384','bojangles@gmail.com')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F14" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('8','Ashley','Jillian','Telemarketing','0785641255','jill.ash@gmail.com')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="D15" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="F15" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>588</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>590</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>609</v>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusinessEmployee(businessID,firstName,surname,department,contactNumber,email) VALUES ('1','Carey','King','HR','0764451115','kingcar@gmail.com')</v>
       </c>
     </row>
   </sheetData>
@@ -4690,6 +4784,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033902A5-014A-4552-A1FB-B251320F8B86}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="160.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('1','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('2','1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A4&amp;"','"&amp;C4&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('3','1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A5&amp;"','"&amp;C5&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('4','2')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A6&amp;"','"&amp;B6&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('5','2')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D7" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A7&amp;"','"&amp;C7&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('6','3')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A8&amp;"','"&amp;B8&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('7','3')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A9&amp;"','"&amp;C9&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('8','4')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A10&amp;"','"&amp;B10&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('9','4')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A11&amp;"','"&amp;C11&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('10','5')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A12&amp;"','"&amp;B12&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('11','5')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A13&amp;"','"&amp;C13&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('12','6')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A14&amp;"','"&amp;B14&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('13','7')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A15&amp;"','"&amp;B15&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('14','6')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A16&amp;"','"&amp;C16&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('15','7')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A17&amp;"','"&amp;B17&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('16','8')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A18&amp;"','"&amp;C18&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('17','9')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A19&amp;"','"&amp;C19&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('18','8')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A20&amp;"','"&amp;B20&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('19','9')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="str">
+        <f>"INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('"&amp;A21&amp;"','"&amp;B21&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientIndividualID) VALUES('20','10')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D22" t="str">
+        <f xml:space="preserve"> "INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('"&amp;A22&amp;"','"&amp;C22&amp;"')"</f>
+        <v>INSERT INTO ClientContractLink(ContractID,ClientBusinessID) VALUES('21','10')</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8B04A5-8130-4B55-B0CE-739B0F513F4F}">
   <dimension ref="A1:B30"/>
@@ -4709,7 +5151,7 @@
         <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4849,10 +5291,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,10 +5434,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5135,10 +5577,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5278,10 +5720,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>503</v>
+        <v>477</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>504</v>
+        <v>478</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5407,10 +5849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285A87D0-6993-4E9A-92DB-3C38401DBA37}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5423,9 +5865,10 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="230.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -5453,8 +5896,11 @@
       <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5465,16 +5911,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -5482,8 +5928,12 @@
       <c r="I2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="str">
+        <f>"INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"','"&amp;I2&amp;"')"</f>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Jayden','Hardman','1','0817622651','myname@gmail.com','9712010089065','1997/12/01','1','Call Center')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -5491,19 +5941,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -5511,8 +5961,12 @@
       <c r="I3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J17" si="0">"INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"','"&amp;I3&amp;"')"</f>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Matin','De wet','4','0848766219','yourname@hotmail.com','9001010045087','1990/02/01','1','Call Center')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -5523,16 +5977,16 @@
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="H4" s="2">
         <v>1</v>
@@ -5540,298 +5994,342 @@
       <c r="I4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Lijani','John','3','0724877534','lolmemes@gmail.com','8305283029467','1983/05/28','1','Service Manager')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Alfredo','Gonzales','6','0785541254','mainman@gmail.com','9606257415236','1996/06/25','0','Call Center')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Emma','Smith','7','0840002356','emmasm@gmail.com','9901220023086','1999/01/22','1','Service Manager')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Andre','Labuschagne','8','0615872145','lappie@hotmail.com','7812120045069','1978/12/12','1','Call Center')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Milla','Enthoven','9','0621258744','milla@enthoven.co.za','0210070024087','2002/10/07','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Emke ','Krige','11','0834005297','emkrige@vodamail.com','0004280078089','2000/04/28','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Kayla','Milestone','16','0751239874','kaykay@gmail.com','9504190056025','1995/04/19','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Mike','Evans','14','0472541230','evans@hotmail.com','8503260045077','1985/03/26','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>509</v>
+        <v>483</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>511</v>
+        <v>485</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>512</v>
+        <v>486</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Liam','Stevens','12','0870120506','stevens.liam@gmail.com','9010100056023','1990/10/10','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>514</v>
+        <v>488</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Nicole ','Horwood','13','0761154212','horwood@hotmail.com','8912120023086','1989/12/12','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>522</v>
+        <v>496</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Nicholas','Horwood','13','0764451233','horwood1@hotmail.com','8704040056088','1987/04/04','4','Maintenance')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -5839,19 +6337,19 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H15" s="2">
         <v>1</v>
@@ -5859,8 +6357,12 @@
       <c r="I15" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Duncan','Joe','2','0818477924','himatin@yahoo.com','7502137592035','1975/02/13','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -5871,16 +6373,16 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H16" s="2">
         <v>1</v>
@@ -5888,34 +6390,42 @@
       <c r="I16" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Dylan','Zeus','5','0617349561','mrdoge@gmail.com','9305042739295','1993/05/04','1','Maintenance')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="H17" s="2">
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="J17" t="str">
+        <f>"INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;D17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"','"&amp;G17&amp;"','"&amp;H17&amp;"','"&amp;I17&amp;"')"</f>
+        <v>INSERT INTO Employee(firstName,surname,addressId,contactNumber,email,nationalIdNumber,employmentDate,employed,department) VALUES ('Johan','Venter','10','0875462135','jjf@gmail.com','9602180058088','1996/02/18','1','Maintenance')</v>
       </c>
     </row>
   </sheetData>
@@ -5958,10 +6468,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>502</v>
+        <v>476</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6101,10 +6611,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>506</v>
+        <v>480</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>505</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,10 +6883,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0A000B-1196-4AED-9DC8-9045892B92EA}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6386,116 +6896,171 @@
     <col min="3" max="3" width="117.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO Specialisation([name],[description]) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Office Technician','Fix printers of all types')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C14" si="0">"INSERT INTO Specialisation([name],[description]) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Plumbing','Fix pipes and toilets')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Electrician','Fix electrical problems')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Painter','Paint buildings')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Gardener','Maintain garden')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Communication Technician','Maintain telephone lines')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Paver','Repairs paving outside')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Window washer','Cleans windows of all sizes')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
         <v>204</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Carpenter','Lays carpets')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
         <v>206</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Samsung Technician','Repairs Samsung devices')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
         <v>208</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('HP Technician','Repairs HP devices')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
         <v>210</v>
       </c>
-      <c r="B10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('WiFi Installer','Installs WiFi from scratch')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
-        <v>301</v>
+        <v>294</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO Specialisation([name],[description]) VALUES ('Animal Control','Controlling of all unwanted pests, such as rats')</v>
       </c>
     </row>
   </sheetData>
@@ -6505,10 +7070,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C11AAE-C941-4DD6-B77C-6477F7E27E50}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6521,9 +7086,10 @@
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="15.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>67</v>
       </c>
@@ -6546,10 +7112,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6560,22 +7129,26 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>347</v>
+        <v>585</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>"INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;G2&amp;"','"&amp;H2&amp;"')"</f>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('John','Mike','1','0972841135','john@gmail.com','9012010045089','1990/01/01','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6586,22 +7159,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I11" si="0">"INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"','"&amp;G3&amp;"','"&amp;H3&amp;"')"</f>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Joe','Mitch','1','0981345513','joe@gmail.com','0001010056023','2000/01/01','1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -6612,22 +7189,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Jane','Soft','2','0663212235','jane@gmail.com','0202200056088','2002/02/20','0')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -6638,22 +7219,26 @@
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Peter','Small','4','0743456672','peter@gmail.com','0403040088089','200/03/04','1')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -6664,177 +7249,201 @@
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Jaco','Musk','5','0234566752','jaco@gmail.com','1203210089099','2012/09/21','1')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Ulrika','Hutch','11','0894552236','ulrika@gmail.com','9803230056089','1998/03/23','1')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Dillan','de Waal','3','0562231554','dewaal@hotmail.com','7803310055069','1978/03/31','1')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="B9" t="s">
         <v>225</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Kellyn','Kinnear','6','0238897777','k.kinnear@gmail.com','9502140023086','1995/02/14','0')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>231</v>
-      </c>
-      <c r="B9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="G10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Jake','Jackson','8','0560080808','jacksonejake@gmail.com','8512110088065','1985/12/11','1')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="B11" t="s">
         <v>243</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E11" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientIndividual(firstName, surname, addressId, contactNumber, email, nationalIdNumber, RegistrationDate,[active]) VALUES ('Oliver','Twist','14','0784451236','ollie.twist@vodamail.com','8810310045089','1988/10/31','1')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -6888,10 +7497,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11E3885-7698-4E55-9C9B-8066A54A1099}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G2" sqref="G2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6902,9 +7511,10 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="238.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
@@ -6921,10 +7531,13 @@
         <v>52</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
@@ -6932,199 +7545,239 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>"INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('WeSellThings','5','0122598899','8729293812','2000/03/21','1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B3" s="2">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G11" si="0">"INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('TakeALittle','4','0315561254','8762128491','1994/03/19','1')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="F4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('AmaGone','9','0315569874','7263749182','1980/12/21','1')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B5" s="2">
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Milk At Large','3','0125698745','7462919202','1892/12/01','1')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Bored At Home','1','0453694587','6273819283','2020/03/21','1')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Phones R Us','15','0125648878','2354123652','2021/03/29','0')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Pick And Swipe','13','0316587788','1256878654','2004/07/05','1')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Kua Kua','10','0123658899','2587456454','2013/07/24','1')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('New Ages','8','0314578000','2356987745','2007/04/30','1')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ClientBusiness([busuinessName],[addressId],[contactNumber],[taxNumber],[RegistrationDate],[active])VALUES ('Mr B Delivery','7','0124587798','5987456565','2018/08/25','1')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7132,7 +7785,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7140,21 +7793,21 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -7168,10 +7821,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7070B003-D1C3-4877-8BC6-170798607FD7}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7181,9 +7834,10 @@
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="183.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -7202,10 +7856,13 @@
       <c r="F1" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -7213,15 +7870,23 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F2" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G9" si="0">"INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;D2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"','"&amp;C2&amp;"')"</f>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Samsung Appliances','0','1111/11/11','1111/11/11','1000','0')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -7229,15 +7894,23 @@
       <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F3" s="2">
         <v>5000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Office Printers','0','1111/11/11','1111/11/11','5000','0')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -7245,15 +7918,23 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F4" s="2">
         <v>30000</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Flooring','0','1111/11/11','1111/11/11','30000','0')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -7261,13 +7942,21 @@
       <c r="C5" s="2">
         <v>0</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F5" s="2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Phones','0','1111/11/11','1111/11/11','15000','0')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -7278,106 +7967,142 @@
         <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="F6" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Gardening','1','2021/03/01','2021/06/01','20000','15')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B7" s="2">
         <v>0</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Nokia Devices','0','1111/11/11','1111/11/11','7000','0')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('HP Equipment','1','2021/01/01','2021/06/30','4500','25')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Painting','0','1111/11/11','1111/11/11','6300','0')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"','"&amp;C10&amp;"')"</f>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Outside Maintenance','1','2021/10/01','2021/12/31','30000','10')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>286</v>
-      </c>
       <c r="B11" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F11" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G12" si="1">"INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"','"&amp;C11&amp;"')"</f>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Indoor Maintenance','0','1111/11/11','1111/11/11','50000','0')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B12" s="2">
         <v>0</v>
@@ -7385,10 +8110,18 @@
       <c r="C12" s="2">
         <v>0</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>586</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>303</v>
+        <v>296</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>INSERT INTO ServicePackage([name],[onPromotion],[promotionStartDate],[promotionEndDate],[price],[promotionPercentAmount]) VALUES ('Pest Control','0','1111/11/11','1111/11/11','4000','0')</v>
       </c>
     </row>
   </sheetData>
@@ -7398,176 +8131,256 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598067A-EBA1-43E2-9A97-F1C6418E3363}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="73.28515625" customWidth="1"/>
+    <col min="3" max="3" width="255.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="str">
+        <f>"INSERT INTO [Service]([name],[description]) VALUES('"&amp;A2&amp;"','"&amp;B2&amp;"')"</f>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Fix ink jet printers','Fix all types of ink jet printers, excluding HP')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C20" si="0">"INSERT INTO [Service]([name],[description]) VALUES('"&amp;A3&amp;"','"&amp;B3&amp;"')"</f>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Repair toilet pipes','Replace broken toilet pipes')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Remove weeds','Remove weeds from gardens and between paving stones')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Replace plugs','Replace a broken or defective plug point')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
         <v>292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Exterminate wasps','Remove wasps from areas ')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Exterminate rats','Remove rats from areas')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Fix laser printers','Fix all types of laser printers')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Plant flowers','Plant flowers in garden beds, includes watering the garden after planting')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Replace missing bricks','Place new bricks in place of missing bricks')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Paint outside walls','Paint the outer walls of the building a desired colour')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
+        <v>308</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Paint inside walls','Paint the interior walls of the building a desired colour')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>310</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Maintain HP printer','Routine maintenance on HP office printer')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Debug HP laptop','Find and fix the bugs on a HP office notebook or laptop')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>314</v>
+      </c>
+      <c r="B15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Maintain Samsung fridge','Routine maintenance on Samsung smart fridge - office use only')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Reconnect router','Reconnect the disconnected WiFi router in the office')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B7" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>308</v>
-      </c>
-      <c r="B9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>312</v>
-      </c>
-      <c r="B11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>314</v>
-      </c>
-      <c r="B12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B13" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B17" t="s">
         <v>319</v>
       </c>
-      <c r="B14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Replace telephone buttons','Replace the missing buttons on an office telephone - cannot guarantee matching')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>321</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Fix leaking sink','Find and fix the cause of a leaking sink in the bathroom')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>323</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Fix broken window','Replace the shattered glass of a window - does not include the pane')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>325</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>330</v>
-      </c>
-      <c r="B19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>332</v>
-      </c>
-      <c r="B20" t="s">
-        <v>333</v>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO [Service]([name],[description]) VALUES('Fix Nokia screen','Replace the screen on a Nokia device')</v>
       </c>
     </row>
   </sheetData>
@@ -7577,10 +8390,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC00209-E711-4682-94E1-7E66A0527FC1}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F7:F21"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7591,9 +8404,10 @@
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="73.7109375" customWidth="1"/>
+    <col min="7" max="7" width="228.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
@@ -7612,353 +8426,436 @@
       <c r="F1" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;E2&amp;"','"&amp;F2&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2000/01/19 06:30:00','2000/01/19 06:50:12','1','1','Broken pipes in men's room - water everywhere')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;D3&amp;"','"&amp;E3&amp;"','"&amp;F3&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2018/12/18 12:15:55','2018/12/18 12:36:55','2','2','Garden is full of weeds - take pesticide. All flowers have died')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A4&amp;"','"&amp;B4&amp;"','"&amp;C4&amp;"','"&amp;E4&amp;"','"&amp;F4&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2001/11/16 15:35:54','2001/11/16 15:55:34','3','1','Light switches won't work in the meeting room')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>377</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G5" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A5&amp;"','"&amp;B5&amp;"','"&amp;D5&amp;"','"&amp;E5&amp;"','"&amp;F5&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2003/01/25 16:45:12','2003/01/25 16:59:12','5','6','Printer jammed - cannot get paper out and keeps giving an error')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>378</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A6&amp;"','"&amp;B6&amp;"','"&amp;C6&amp;"','"&amp;E6&amp;"','"&amp;F6&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2010/07/08 11:05:44','2010/07/08 11:09:57','5','2','Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G7" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A7&amp;"','"&amp;B7&amp;"','"&amp;C7&amp;"','"&amp;E7&amp;"','"&amp;F7&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2005/08/17 15:03:44','2005/08/17 15:23:49','2','6','Wasps outside the main door')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="D5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" t="s">
-        <v>382</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="B8" s="2" t="s">
         <v>386</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C7" t="s">
-        <v>395</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
+        <v>140</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+      <c r="G8" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A8&amp;"','"&amp;B8&amp;"','"&amp;D8&amp;"','"&amp;E8&amp;"','"&amp;F8&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2021/01/14 10:11:55','2021/01/14 10:25:42','1','2','Printer does not want to accept the cartridge')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C9" t="s">
+        <v>388</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A9&amp;"','"&amp;B9&amp;"','"&amp;C9&amp;"','"&amp;E9&amp;"','"&amp;F9&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2021/04/28 14:25:55','2021/04/28 14:55:58','9','6','Rats can be heard in the roof')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s">
-        <v>382</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A10&amp;"','"&amp;B10&amp;"','"&amp;D10&amp;"','"&amp;E10&amp;"','"&amp;F10&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2021/03/13 09:54:41','2021/03/13 10:05:36','4','1','No incoming calls are being received - lines seem to be down')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A11&amp;"','"&amp;B11&amp;"','"&amp;D11&amp;"','"&amp;E11&amp;"','"&amp;F11&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2020/05/29 12:04:48','2020/05/29 12:34:55','3','9','Routine maintenance on HP printer')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="G12" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A12&amp;"','"&amp;B12&amp;"','"&amp;C12&amp;"','"&amp;E12&amp;"','"&amp;F12&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2020/08/07 07:10:58','2020/08/07 07:18:22','6','1','WiFi has been off for three days - cables have been chewed')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A13&amp;"','"&amp;B13&amp;"','"&amp;D13&amp;"','"&amp;E13&amp;"','"&amp;F13&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2021/04/27 09:02:55','2021/04/27 09:45:12','6','2','Roses are being eaten by lice - take pesticides for 4 rose beds')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A14&amp;"','"&amp;B14&amp;"','"&amp;C14&amp;"','"&amp;E14&amp;"','"&amp;F14&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2021/01/19 13:45:55','2021/01/19 13:59:54','4','1','Light bulbs are no longer dimming')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A15&amp;"','"&amp;B15&amp;"','"&amp;D15&amp;"','"&amp;E15&amp;"','"&amp;F15&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2019/12/01 12:05:07','2019/12/01 12:15:47','7','6','Door is jammed and people are trapped inside the bathroom')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C12" t="s">
-        <v>397</v>
-      </c>
-      <c r="E12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G16" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A16&amp;"','"&amp;B16&amp;"','"&amp;D16&amp;"','"&amp;E16&amp;"','"&amp;F16&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2019/07/25 11:11:11','2019/07/25 11:22:22','10','2','Women's bathroom is underwater - potential burst pipe')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C14" t="s">
-        <v>396</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="G17" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A17&amp;"','"&amp;B17&amp;"','"&amp;C17&amp;"','"&amp;E17&amp;"','"&amp;F17&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2017/09/11 07:35:04','2017/09/11 07:48:56','7','6','Bird has flown throught glass window - glass needs replacing')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="G18" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A18&amp;"','"&amp;B18&amp;"','"&amp;C18&amp;"','"&amp;E18&amp;"','"&amp;F18&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2021/05/04 16:05:44','2021/05/14 16:19:07','8','2','Computers not connecting to the in-house WiFi')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="G19" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A19&amp;"','"&amp;B19&amp;"','"&amp;D19&amp;"','"&amp;E19&amp;"','"&amp;F19&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2021/05/01 12:44:17','2021/05/01 12:54:45','8','6','Samsung fridge in office is not receiving power - potential cable or plug damage')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="G20" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('"&amp;A20&amp;"','"&amp;B20&amp;"','"&amp;C20&amp;"','"&amp;E20&amp;"','"&amp;F20&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientIndividualID, employeeID, callNotes) VALUES ('2018/03/31 14:47:23','2018/03/31 14:58:02','10','1','Replacement of old keyboard and mouses needed in office')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D16" t="s">
-        <v>405</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C17" t="s">
-        <v>398</v>
-      </c>
-      <c r="E17" t="s">
-        <v>382</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" t="s">
-        <v>399</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D19" t="s">
-        <v>406</v>
-      </c>
-      <c r="E19" t="s">
-        <v>382</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="C20" t="s">
-        <v>400</v>
-      </c>
-      <c r="E20" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="D21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
-        <v>388</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="str">
+        <f>"INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('"&amp;A21&amp;"','"&amp;B21&amp;"','"&amp;D21&amp;"','"&amp;E21&amp;"','"&amp;F21&amp;"')"</f>
+        <v>INSERT INTO [Call](startTime, endTime, ClientBusinessID, employeeID, callNotes) VALUES ('2021/04/08 09:23:45','2021/04/08 09:42:55','9','9','Laser printer is not printing correctly')</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
     </row>
@@ -7969,10 +8866,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230652B2-11AE-4461-8C3B-930E31C235FB}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7981,23 +8878,27 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="71.7109375" customWidth="1"/>
     <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="193.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8009,10 +8910,14 @@
         <v>Broken pipes in men's room - water everywhere</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('"&amp;A2&amp;"','"&amp;B2&amp;"','"&amp;C2&amp;"','"&amp;D2&amp;"')"</f>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('1','1','Broken pipes in men's room - water everywhere','PLA1')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8024,10 +8929,14 @@
         <v>Garden is full of weeds - take pesticide. All flowers have died</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E21" si="0">"INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('"&amp;A3&amp;"','"&amp;B3&amp;"','"&amp;C3&amp;"','"&amp;D3&amp;"')"</f>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('2','1','Garden is full of weeds - take pesticide. All flowers have died','GOL3')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8039,10 +8948,14 @@
         <v>Light switches won't work in the meeting room</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('3','1','Light switches won't work in the meeting room','SIL5')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8054,10 +8967,14 @@
         <v>Printer jammed - cannot get paper out and keeps giving an error</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('4','0','Printer jammed - cannot get paper out and keeps giving an error','BRO7')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -8069,10 +8986,14 @@
         <v>Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('5','0','Wall has paint chips and is due for a fresh coat - Sand Storm Colour (Dulux)','PLA2')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -8084,10 +9005,14 @@
         <v>Wasps outside the main door</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('6','0','Wasps outside the main door','SPE3')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -8099,10 +9024,14 @@
         <v>Printer does not want to accept the cartridge</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('7','0','Printer does not want to accept the cartridge','SIL6')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -8114,10 +9043,14 @@
         <v>Rats can be heard in the roof</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('8','0','Rats can be heard in the roof','BRO8')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -8129,10 +9062,14 @@
         <v>No incoming calls are being received - lines seem to be down</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('9','0','No incoming calls are being received - lines seem to be down','SPE3')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -8144,10 +9081,14 @@
         <v>Routine maintenance on HP printer</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('10','1','Routine maintenance on HP printer','SIL6')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -8159,10 +9100,14 @@
         <v>WiFi has been off for three days - cables have been chewed</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('11','0','WiFi has been off for three days - cables have been chewed','BRO7')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -8174,10 +9119,14 @@
         <v>Roses are being eaten by lice - take pesticides for 4 rose beds</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('12','1','Roses are being eaten by lice - take pesticides for 4 rose beds','GOL3')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -8189,10 +9138,14 @@
         <v>Light bulbs are no longer dimming</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('13','1','Light bulbs are no longer dimming','SIL5')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -8204,10 +9157,14 @@
         <v>Door is jammed and people are trapped inside the bathroom</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('14','1','Door is jammed and people are trapped inside the bathroom','BRO8')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -8219,10 +9176,14 @@
         <v>Women's bathroom is underwater - potential burst pipe</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('15','0','Women's bathroom is underwater - potential burst pipe','SIL5')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -8234,10 +9195,14 @@
         <v>Bird has flown throught glass window - glass needs replacing</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('16','1','Bird has flown throught glass window - glass needs replacing','BRO8')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -8249,10 +9214,14 @@
         <v>Computers not connecting to the in-house WiFi</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('17','0','Computers not connecting to the in-house WiFi','BRO7')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -8264,10 +9233,14 @@
         <v>Samsung fridge in office is not receiving power - potential cable or plug damage</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('18','0','Samsung fridge in office is not receiving power - potential cable or plug damage','PLA2')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -8279,10 +9252,14 @@
         <v>Replacement of old keyboard and mouses needed in office</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('19','0','Replacement of old keyboard and mouses needed in office','PLA1')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -8294,7 +9271,11 @@
         <v>Laser printer is not printing correctly</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>INSERT INTO ServiceRequest(callID,closed,description,priorityLevel) VALUES ('20','0','Laser printer is not printing correctly','PLA1')</v>
       </c>
     </row>
   </sheetData>
